--- a/Freezer_Database.xlsx
+++ b/Freezer_Database.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filol\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univr-my.sharepoint.com/personal/filippo_lucchini_univr_it/Documents/Progetto Freezer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F54961-3EC2-4449-83DD-49FE7735B0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{8E9AEE6C-E15B-6B49-8ACE-8ABC20802EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6FD5D7C-662C-409C-A61E-0CFAE837F0CF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CD75289-4961-452B-AFA6-E2C514327AF8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Training Lists" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="333">
   <si>
     <t>Freezer Name</t>
   </si>
@@ -120,35 +120,949 @@
     <t>Box_Number_If_Available</t>
   </si>
   <si>
-    <t>CGF326_WES</t>
-  </si>
-  <si>
-    <t>_</t>
-  </si>
-  <si>
-    <t>August_2025</t>
-  </si>
-  <si>
-    <t>August_2026</t>
-  </si>
-  <si>
-    <t>M2200_M2201</t>
-  </si>
-  <si>
     <t>Cassetto</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>FREEZER</t>
+  </si>
+  <si>
+    <t>Meyer</t>
+  </si>
+  <si>
+    <t>Meyer 2019</t>
+  </si>
+  <si>
+    <t>7865-7993</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>7427-7519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esomi Verona </t>
+  </si>
+  <si>
+    <t>CGF346_Artuso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGF326_Meyer </t>
+  </si>
+  <si>
+    <t>Meyer_2019</t>
+  </si>
+  <si>
+    <t>Agosto/settembre 2022</t>
+  </si>
+  <si>
+    <t>A73-A88/A104-A166</t>
+  </si>
+  <si>
+    <t>Meyer_2018</t>
+  </si>
+  <si>
+    <t>6442-6516</t>
+  </si>
+  <si>
+    <t>Giugno/luglio 2020</t>
+  </si>
+  <si>
+    <t>Meyer_sett.19</t>
+  </si>
+  <si>
+    <t>Meyer_mar</t>
+  </si>
+  <si>
+    <t>8307-8389</t>
+  </si>
+  <si>
+    <t>7392-7473</t>
+  </si>
+  <si>
+    <t>M622-M707</t>
+  </si>
+  <si>
+    <t>6921-7015</t>
+  </si>
+  <si>
+    <t>Dicembre 2022/gennaio 2023</t>
+  </si>
+  <si>
+    <t>M237-M334</t>
+  </si>
+  <si>
+    <t>6407-6491</t>
+  </si>
+  <si>
+    <t>Esomi Verona gennaio 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esomi Verona 1 invio </t>
+  </si>
+  <si>
+    <t>Febbraio/aprile 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giugno-luglio 2022 / settembre 2022 </t>
+  </si>
+  <si>
+    <t>9293-9480/M1-M53</t>
+  </si>
+  <si>
+    <t>CGF252</t>
+  </si>
+  <si>
+    <t>Novembre/dicembre 2020</t>
+  </si>
+  <si>
+    <t>Meyer - Esoma clinico</t>
+  </si>
+  <si>
+    <t>Ottobre-novembre 2019</t>
+  </si>
+  <si>
+    <t>8473-8639</t>
+  </si>
+  <si>
+    <t>Esomi Verona 8 invio</t>
+  </si>
+  <si>
+    <t>2261-2341</t>
+  </si>
+  <si>
+    <t>6596-6692</t>
+  </si>
+  <si>
+    <t>8075-8086/7126/7129/7394/7383/7417/7421</t>
+  </si>
+  <si>
+    <t>CGF252_Meyer</t>
+  </si>
+  <si>
+    <t>6517-6583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGF_Artuso </t>
+  </si>
+  <si>
+    <t>8392-8472</t>
+  </si>
+  <si>
+    <t>Esomi giugno 2021</t>
+  </si>
+  <si>
+    <t>4224-4304</t>
+  </si>
+  <si>
+    <t>Campioni Esoma Verona luglio 2018</t>
+  </si>
+  <si>
+    <t>6693-6728</t>
+  </si>
+  <si>
+    <t>Esoma clinico 2019</t>
+  </si>
+  <si>
+    <t>giugno/luglio 2019</t>
+  </si>
+  <si>
+    <t>7732-7864</t>
+  </si>
+  <si>
+    <t>Ottobre/novembre 2021</t>
+  </si>
+  <si>
+    <t>5824-5853/6003-6069</t>
+  </si>
+  <si>
+    <t>CGF346_Artuso WES</t>
+  </si>
+  <si>
+    <t>Novembre/dicembre 2023</t>
+  </si>
+  <si>
+    <t>A698A786</t>
+  </si>
+  <si>
+    <t>Meyer 2018</t>
+  </si>
+  <si>
+    <t>5538-5576/7483/7484</t>
+  </si>
+  <si>
+    <t>Aprile/maggio 2019</t>
+  </si>
+  <si>
+    <t>7601-7720</t>
+  </si>
+  <si>
+    <t>8475-8555</t>
+  </si>
+  <si>
+    <t>7015-7480</t>
+  </si>
+  <si>
+    <t>4390-4472</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>8998-9001/9301-9377</t>
+  </si>
+  <si>
+    <t>Meyer 2018 Aprile</t>
+  </si>
+  <si>
+    <t>6351-6431</t>
+  </si>
+  <si>
+    <t>7124-7214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luglio/settembre 2023 </t>
+  </si>
+  <si>
+    <t>Novembre/dicembre 2022</t>
+  </si>
+  <si>
+    <t>A433-A523</t>
+  </si>
+  <si>
+    <t>Novembre/dicembre 2019</t>
+  </si>
+  <si>
+    <t>8640-8767</t>
+  </si>
+  <si>
+    <t>Ottobre 2022/ dicembre 2022</t>
+  </si>
+  <si>
+    <t>M146-M172/M183-M236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meyer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WES Verona </t>
+  </si>
+  <si>
+    <t>2983-3076</t>
+  </si>
+  <si>
+    <t>Ottobre/novembre 2019</t>
+  </si>
+  <si>
+    <t>A341-A373/A385-A432</t>
+  </si>
+  <si>
+    <t>Esomi Verona</t>
+  </si>
+  <si>
+    <t>Gen46_Burlo</t>
+  </si>
+  <si>
+    <t>X1851-X2109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGF326_WES </t>
+  </si>
+  <si>
+    <t>Ottobre-novembre 2023</t>
+  </si>
+  <si>
+    <t>M821-M917</t>
+  </si>
+  <si>
+    <t>M441-M521</t>
+  </si>
+  <si>
+    <t>Settembre+novembre 2023</t>
+  </si>
+  <si>
+    <t>X2280-X2561</t>
+  </si>
+  <si>
+    <t>8759-8833</t>
+  </si>
+  <si>
+    <t>M352-M430</t>
+  </si>
+  <si>
+    <t>6765-6859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settembre/ottobre </t>
+  </si>
+  <si>
+    <t>M54-M83/M95-M145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settembre/ottobre 2022 </t>
+  </si>
+  <si>
+    <t>A167-A189/A287-A340</t>
+  </si>
+  <si>
+    <t>5865-5948</t>
+  </si>
+  <si>
+    <t>M918-M1013/M1074</t>
+  </si>
+  <si>
+    <t>8345-8424</t>
+  </si>
+  <si>
+    <t>X2025-X2105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luglio/agosto </t>
+  </si>
+  <si>
+    <t>9642-9656/A01-A72</t>
+  </si>
+  <si>
+    <t>A524-A539</t>
+  </si>
+  <si>
+    <t>Esomi</t>
+  </si>
+  <si>
+    <t>Luglio-settembre 2023</t>
+  </si>
+  <si>
+    <t>X2110-X2279</t>
+  </si>
+  <si>
+    <t>Artuso</t>
+  </si>
+  <si>
+    <t>Gennaio-febbraio 2024</t>
+  </si>
+  <si>
+    <t>A876-A964</t>
+  </si>
+  <si>
+    <t>9378-9386/9570-9641</t>
+  </si>
+  <si>
+    <t>Maggio-giugno 2022</t>
+  </si>
+  <si>
+    <t>8834-8839/9227-9292</t>
+  </si>
+  <si>
+    <t>Giugno-luglio 2023</t>
+  </si>
+  <si>
+    <t>M531-M621</t>
+  </si>
+  <si>
+    <t>M708-M819</t>
+  </si>
+  <si>
+    <t>Settembre-novembre 2023</t>
+  </si>
+  <si>
+    <t>A610-A697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGF326_Parrini </t>
+  </si>
+  <si>
+    <t>A1408-A1423/A1432-A1494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settembre/ottobre 2024 </t>
+  </si>
+  <si>
+    <t>Maggio-giugno 2024</t>
+  </si>
+  <si>
+    <t>M1404 -</t>
+  </si>
+  <si>
+    <t>Luglio/settembre 2024</t>
+  </si>
+  <si>
+    <t>A1316-A1351/A1361-A1405</t>
+  </si>
+  <si>
+    <t>Aprile-maggio 2024</t>
+  </si>
+  <si>
+    <t>A1051-A1139</t>
+  </si>
+  <si>
+    <t>Novembre/dicembre 2024</t>
+  </si>
+  <si>
+    <t>M1897-M1977</t>
+  </si>
+  <si>
+    <t>Giugno/luglio 2024</t>
+  </si>
+  <si>
+    <t>A1228-A1263/A1271-A1315</t>
+  </si>
+  <si>
+    <t>Novembre-dicembre 2024/gennaio 2025</t>
+  </si>
+  <si>
+    <t>M1978-M2025/M2040-M2091</t>
+  </si>
+  <si>
+    <t>Esoma Verona</t>
+  </si>
+  <si>
+    <t>5054-5146</t>
+  </si>
+  <si>
+    <t>6279-6356</t>
+  </si>
+  <si>
+    <t>A787-A875</t>
+  </si>
+  <si>
+    <t>Dicembre 2023/gennaio 2024</t>
+  </si>
+  <si>
+    <t>X2752-X2799</t>
+  </si>
+  <si>
+    <t>Febbraio -marzo 2024</t>
+  </si>
+  <si>
+    <t>A954-A1043</t>
+  </si>
+  <si>
+    <t>Gennaio/febbraio 2025</t>
+  </si>
+  <si>
+    <t>M2092-M2134/M2146-M2181</t>
+  </si>
+  <si>
+    <t>A1140-A1189/A1197-A1227</t>
+  </si>
+  <si>
+    <t>Agosto/settembre 2024</t>
+  </si>
+  <si>
+    <t>Aprile/maggio 2025</t>
+  </si>
+  <si>
+    <t>M2270-M2275</t>
+  </si>
+  <si>
+    <t>Febbraio/marzo/aprile 2025</t>
+  </si>
+  <si>
+    <t>M2182-M2206/M2214-M2241/M2245-M2270</t>
+  </si>
+  <si>
+    <t>M2089-M2134/M3146- M2172</t>
+  </si>
+  <si>
+    <t>818-970</t>
+  </si>
+  <si>
+    <t>M2279-2337</t>
+  </si>
+  <si>
+    <t>Febbraio /marzo/aprile 2025</t>
+  </si>
+  <si>
+    <t>M2173-M2206/M2214-M2241/-</t>
+  </si>
+  <si>
+    <t>Novembre 2024/ gennaio 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> /M2040-M2088</t>
+  </si>
+  <si>
+    <t>Gen50 Ab analitica</t>
+  </si>
+  <si>
+    <t>CGF346</t>
+  </si>
+  <si>
+    <t>CGF363_Giglio</t>
+  </si>
+  <si>
+    <t>Gen50 WES SIGU</t>
+  </si>
+  <si>
+    <t>Ab analitica WES inserto lungo</t>
+  </si>
+  <si>
+    <t>Catt.812/catt.925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGF334 Gaslini tellseq. </t>
+  </si>
+  <si>
+    <t>Prove ILM Exome 2.0 plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roche Exome 2.0 </t>
+  </si>
+  <si>
+    <t>Illumina Exome V2</t>
+  </si>
+  <si>
+    <t>Illumina Exome V2.5 updated</t>
+  </si>
+  <si>
+    <t>CGF372_Morrone</t>
+  </si>
+  <si>
+    <t>639-782</t>
+  </si>
+  <si>
+    <t>Gen46_Burlo WGS</t>
+  </si>
+  <si>
+    <t>Gen46_Burlo WES</t>
+  </si>
+  <si>
+    <t>X1932-X2100</t>
+  </si>
+  <si>
+    <t>Gen46 WES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settembre/novembre 2023 </t>
+  </si>
+  <si>
+    <t>X2293-X2561</t>
+  </si>
+  <si>
+    <t>X1851-X1931</t>
+  </si>
+  <si>
+    <t>Luglio/settembre 2023</t>
+  </si>
+  <si>
+    <t>X2101-X2292</t>
+  </si>
+  <si>
+    <t>Franceschi Bologna</t>
+  </si>
+  <si>
+    <t>4867-4908</t>
+  </si>
+  <si>
+    <t>CGF317_miRNA Finotti</t>
+  </si>
+  <si>
+    <t>CGF299_Udali / CGF289 Pizzolo (esosomi urinari)</t>
+  </si>
+  <si>
+    <t>CGF310_Vermi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beretta </t>
+  </si>
+  <si>
+    <t>Wadenswill</t>
+  </si>
+  <si>
+    <t>Gen04_miRNA_Bianchi</t>
+  </si>
+  <si>
+    <t>Gen16_sgRNA</t>
+  </si>
+  <si>
+    <t>CGF340_Beretta</t>
+  </si>
+  <si>
+    <t>miRNA Cabrini</t>
+  </si>
+  <si>
+    <t>Gen56_Dalmonte_miRNA</t>
+  </si>
+  <si>
+    <t>CGF336_Colantuoni</t>
+  </si>
+  <si>
+    <t>Gen07_Licitra/Gen08_Citrus</t>
+  </si>
+  <si>
+    <t>Gen12_Pilotti</t>
+  </si>
+  <si>
+    <t>Gen26_Balestrini/Gen33_Silos/Gen34_Marchese</t>
+  </si>
+  <si>
+    <t>Indici miRNA</t>
+  </si>
+  <si>
+    <t>CGF344_prove allungamento inserto</t>
+  </si>
+  <si>
+    <t>Gen29_Landsbergher/Gen30_Botta/Ger32_Finitti miRNA</t>
+  </si>
+  <si>
+    <t>Gen28/Gen36/Gen38</t>
+  </si>
+  <si>
+    <t>Gen01_Lupinus digitatus</t>
+  </si>
+  <si>
+    <t>Terzi</t>
+  </si>
+  <si>
+    <t>Gen27_Busatto</t>
+  </si>
+  <si>
+    <t>Gen08_Invio2022/Gen18_Galattero/CGF310_Vermi</t>
+  </si>
+  <si>
+    <t>CGF283_Nestera</t>
+  </si>
+  <si>
+    <t>CGF314_GeniAti</t>
+  </si>
+  <si>
+    <t>VR29-VR39</t>
+  </si>
+  <si>
+    <t>CGF282_Gaslini</t>
+  </si>
+  <si>
+    <t>CGF303_Trieste</t>
+  </si>
+  <si>
+    <t>9130-9163/9306-9321</t>
+  </si>
+  <si>
+    <t>WGS vari_CDE</t>
+  </si>
+  <si>
+    <t>Prove frammentazione Covaries CDE</t>
+  </si>
+  <si>
+    <t>Clorella Balottari/CGF354_Brassica</t>
+  </si>
+  <si>
+    <t>CGF277_Cricri</t>
+  </si>
+  <si>
+    <t>Nebbiolo 100SR</t>
+  </si>
+  <si>
+    <t>Chiara ApoE</t>
+  </si>
+  <si>
+    <t>METAGENOMICA VARI</t>
+  </si>
+  <si>
+    <t>Campioni Marta  x Twist</t>
+  </si>
+  <si>
+    <t>Campioni DNA finger Miller</t>
+  </si>
+  <si>
+    <t>Long fragment ApoE_Tonn_40</t>
+  </si>
+  <si>
+    <t>DNAbox_16</t>
+  </si>
+  <si>
+    <t>Gen02_ cDNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gen02_Negrar </t>
+  </si>
+  <si>
+    <t>CGF301_Negrar</t>
+  </si>
+  <si>
+    <t>CGF301_prova pompaggio</t>
+  </si>
+  <si>
+    <t>CGF301</t>
+  </si>
+  <si>
+    <t>CGF301_nextera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qPCR_samples </t>
+  </si>
+  <si>
+    <t>CGF314</t>
+  </si>
+  <si>
+    <t>Malerba/Aversano</t>
+  </si>
+  <si>
+    <t>DNAbox_10</t>
+  </si>
+  <si>
+    <t>DNAbox_13</t>
+  </si>
+  <si>
+    <t>DNAbox_15</t>
+  </si>
+  <si>
+    <t>Gen_06</t>
+  </si>
+  <si>
+    <t>Gen_05_Badolato</t>
+  </si>
+  <si>
+    <t>Campioni saliva stock</t>
+  </si>
+  <si>
+    <t>CGF305_Badolato</t>
+  </si>
+  <si>
+    <t>Cari Verona 205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Progetto insetti Bortolin </t>
+  </si>
+  <si>
+    <t>Librerie Hpevr varie</t>
+  </si>
+  <si>
+    <t>Campione 5250 (pomodoro)/Gambino</t>
+  </si>
+  <si>
+    <t>Vermi/intatch</t>
+  </si>
+  <si>
+    <t>Gen52_cDNA</t>
+  </si>
+  <si>
+    <t>Gen60_cDNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finotti ampliconi </t>
+  </si>
+  <si>
+    <t>Gen59_cDNA</t>
+  </si>
+  <si>
+    <t>Gen56_diluizioni</t>
+  </si>
+  <si>
+    <t>Kit RNA vari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaiolin primer+prove </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vaiolin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gen06_Nanni Swift </t>
+  </si>
+  <si>
+    <t>Kit twist Marta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vecchi kit ONT </t>
+  </si>
+  <si>
+    <t>Gen11_Costa</t>
+  </si>
+  <si>
+    <t>CGF274_GBS Crea</t>
+  </si>
+  <si>
+    <t>CGF298</t>
+  </si>
+  <si>
+    <t>CGFX GBS 2018</t>
+  </si>
+  <si>
+    <t>CGF298 campioni museali</t>
+  </si>
+  <si>
+    <t>DNA per GBS kiwi/ulivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGF320_Pvulgaris </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGF320 GBS  </t>
+  </si>
+  <si>
+    <t>87-171</t>
+  </si>
+  <si>
+    <t>1_86</t>
+  </si>
+  <si>
+    <t>CGF320_Cece</t>
+  </si>
+  <si>
+    <t>CGF320_P.Lumatus</t>
+  </si>
+  <si>
+    <t>CGF320_Albus 2022</t>
+  </si>
+  <si>
+    <t>CGF320_Cece 2022</t>
+  </si>
+  <si>
+    <t>CGF320_Mutabilis</t>
+  </si>
+  <si>
+    <t>CGF320_Pvulgaris 2022</t>
+  </si>
+  <si>
+    <t>CGF320_Pvulgaris 2023</t>
+  </si>
+  <si>
+    <t>CGF320_Pollgenomi 2022</t>
+  </si>
+  <si>
+    <t>CGF285_Fagiolo moderno/ChlorellaUK</t>
+  </si>
+  <si>
+    <t>CGF321-Tilling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGF301_Campioni reali </t>
+  </si>
+  <si>
+    <t>Campioni ddRAD Francia</t>
+  </si>
+  <si>
+    <t>CGF320_Papa GBS</t>
+  </si>
+  <si>
+    <t>Prove librerie confronti Cece</t>
+  </si>
+  <si>
+    <t>CGF324_Lenticchia</t>
+  </si>
+  <si>
+    <t>CGF158_Lenticchia</t>
+  </si>
+  <si>
+    <t>Bormio 2012</t>
+  </si>
+  <si>
+    <t>Bormio 2018</t>
+  </si>
+  <si>
+    <t>Bormio 2022</t>
+  </si>
+  <si>
+    <t>Georgia 2023</t>
+  </si>
+  <si>
+    <t>Brunei 2018</t>
+  </si>
+  <si>
+    <t>Amsterdam 2019</t>
+  </si>
+  <si>
+    <t>Sud Africa 2015</t>
+  </si>
+  <si>
+    <t>Montenegro 2019</t>
+  </si>
+  <si>
+    <t>Bormio 2023</t>
+  </si>
+  <si>
+    <t>Montenegro 2023</t>
+  </si>
+  <si>
+    <t>Toscana 2022</t>
+  </si>
+  <si>
+    <t>Mongolico 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGF345 genomica personalizzata </t>
+  </si>
+  <si>
+    <t>Comparazione kit_seqwell_mosaix</t>
+  </si>
+  <si>
+    <t>Comparazione kit_seqwell_articolo intervalli inserto</t>
+  </si>
+  <si>
+    <t>Comparazione kit_seqwell_element bioscience</t>
+  </si>
+  <si>
+    <t>Comparazione kit_seqwell_flex prep</t>
+  </si>
+  <si>
+    <t>Gen69_Bascirotto_WES</t>
+  </si>
+  <si>
+    <t>GEN63_Sinisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGF330_1+Milion genome </t>
+  </si>
+  <si>
+    <t>CGS326_Parrini WGS</t>
+  </si>
+  <si>
+    <t>CGS326_Parrini WES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Settembre 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGF330_1MILION </t>
+  </si>
+  <si>
+    <t>CGF290_Tomasetti_Takara</t>
+  </si>
+  <si>
+    <t>Cabrini 3'RNA_Lexogen</t>
+  </si>
+  <si>
+    <t>Single index RNAseq illumina (set a-b)</t>
+  </si>
+  <si>
+    <t>Tomasetti_Low input Takara/Tacconi</t>
+  </si>
+  <si>
+    <t>CGF309_Borello_PrePippin</t>
+  </si>
+  <si>
+    <t>CGF309_Borello_PostPippin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,8 +1085,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -507,10 +1426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D819BC2A-29C8-474F-8807-81D8B4A3F6D6}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I263" sqref="I263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,15 +1438,15 @@
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
+    <col min="8" max="8" width="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -554,34 +1474,6427 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>25</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3">
+        <v>44562</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5">
+        <v>2018</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43709</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2">
+        <v>44256</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="2">
+        <v>44621</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="2">
+        <v>43497</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>2019</v>
+      </c>
+      <c r="H12" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="2">
+        <v>44562</v>
+      </c>
+      <c r="H14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="2">
+        <v>44197</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>33</v>
+      </c>
+      <c r="H16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>2019</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="2">
+        <v>44287</v>
+      </c>
+      <c r="H22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>2018</v>
+      </c>
+      <c r="H23" t="s">
+        <v>65</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="2">
+        <v>44682</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="2">
+        <v>43739</v>
+      </c>
+      <c r="H27" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="2">
+        <v>44348</v>
+      </c>
+      <c r="H28" t="s">
+        <v>72</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="2">
+        <v>44348</v>
+      </c>
+      <c r="H29" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" t="s">
+        <v>79</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>81</v>
+      </c>
+      <c r="H32" t="s">
+        <v>82</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33">
+        <v>2018</v>
+      </c>
+      <c r="H33" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="2">
+        <v>44652</v>
+      </c>
+      <c r="H35" t="s">
+        <v>87</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" t="s">
+        <v>88</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="2">
+        <v>44378</v>
+      </c>
+      <c r="H37" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44713</v>
+      </c>
+      <c r="H38" t="s">
+        <v>91</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="2">
+        <v>43191</v>
+      </c>
+      <c r="H39" t="s">
+        <v>93</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
-        <v>30</v>
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40">
+        <v>2019</v>
+      </c>
+      <c r="H40" t="s">
+        <v>94</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" t="s">
+        <v>97</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="2">
+        <v>44743</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>98</v>
+      </c>
+      <c r="H43" t="s">
+        <v>99</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
+        <v>100</v>
+      </c>
+      <c r="H44" t="s">
+        <v>101</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="2">
+        <v>44105</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" t="s">
+        <v>104</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" t="s">
+        <v>106</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="2">
+        <v>44075</v>
+      </c>
+      <c r="H48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="2">
+        <v>43891</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="2">
+        <v>45078</v>
+      </c>
+      <c r="H50" t="s">
+        <v>109</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>111</v>
+      </c>
+      <c r="H51" t="s">
+        <v>112</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="2">
+        <v>45047</v>
+      </c>
+      <c r="H52" t="s">
+        <v>113</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>114</v>
+      </c>
+      <c r="H53" t="s">
+        <v>115</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>37</v>
+      </c>
+      <c r="E54" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="2">
+        <v>44652</v>
+      </c>
+      <c r="H54" t="s">
+        <v>116</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>119</v>
+      </c>
+      <c r="H55" t="s">
+        <v>120</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="2">
+        <v>44986</v>
+      </c>
+      <c r="H56" t="s">
+        <v>117</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57">
+        <v>2018</v>
+      </c>
+      <c r="H57" t="s">
+        <v>118</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" t="s">
+        <v>121</v>
+      </c>
+      <c r="H58" t="s">
+        <v>122</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="2">
+        <v>44470</v>
+      </c>
+      <c r="H59" t="s">
+        <v>123</v>
+      </c>
+      <c r="J59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>81</v>
+      </c>
+      <c r="H60" t="s">
+        <v>124</v>
+      </c>
+      <c r="J60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="2">
+        <v>44621</v>
+      </c>
+      <c r="H61" t="s">
+        <v>125</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="2">
+        <v>45108</v>
+      </c>
+      <c r="H62" t="s">
+        <v>126</v>
+      </c>
+      <c r="J62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" t="s">
+        <v>7</v>
+      </c>
+      <c r="G63" t="s">
+        <v>127</v>
+      </c>
+      <c r="H63" t="s">
+        <v>128</v>
+      </c>
+      <c r="J63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>36</v>
+      </c>
+      <c r="E64" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" t="s">
+        <v>7</v>
+      </c>
+      <c r="G64" s="2">
+        <v>44896</v>
+      </c>
+      <c r="H64" t="s">
+        <v>129</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E65" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="2">
+        <v>43862</v>
+      </c>
+      <c r="J65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s">
+        <v>131</v>
+      </c>
+      <c r="H66" t="s">
+        <v>132</v>
+      </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>133</v>
+      </c>
+      <c r="E67" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>134</v>
+      </c>
+      <c r="H67" t="s">
+        <v>135</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>37</v>
+      </c>
+      <c r="E68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" t="s">
+        <v>7</v>
+      </c>
+      <c r="G68" s="2">
+        <v>44593</v>
+      </c>
+      <c r="J68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" t="s">
+        <v>33</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="2">
+        <v>44743</v>
+      </c>
+      <c r="H69" t="s">
+        <v>136</v>
+      </c>
+      <c r="J69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" t="s">
+        <v>33</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>137</v>
+      </c>
+      <c r="H70" t="s">
+        <v>138</v>
+      </c>
+      <c r="J70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>37</v>
+      </c>
+      <c r="E71" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>139</v>
+      </c>
+      <c r="H71" t="s">
+        <v>140</v>
+      </c>
+      <c r="J71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>144</v>
+      </c>
+      <c r="E72" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="2">
+        <v>45170</v>
+      </c>
+      <c r="H72" t="s">
+        <v>141</v>
+      </c>
+      <c r="J72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" t="s">
+        <v>142</v>
+      </c>
+      <c r="H73" t="s">
+        <v>143</v>
+      </c>
+      <c r="J73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>144</v>
+      </c>
+      <c r="E74" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" s="2">
+        <v>45352</v>
+      </c>
+      <c r="J74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>36</v>
+      </c>
+      <c r="E75" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>146</v>
+      </c>
+      <c r="H75" t="s">
+        <v>145</v>
+      </c>
+      <c r="J75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>147</v>
+      </c>
+      <c r="H76" t="s">
+        <v>148</v>
+      </c>
+      <c r="J76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>149</v>
+      </c>
+      <c r="H77" t="s">
+        <v>150</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>144</v>
+      </c>
+      <c r="E78" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" t="s">
+        <v>7</v>
+      </c>
+      <c r="G78" s="2">
+        <v>45566</v>
+      </c>
+      <c r="J78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>36</v>
+      </c>
+      <c r="E79" t="s">
+        <v>33</v>
+      </c>
+      <c r="F79" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" t="s">
+        <v>151</v>
+      </c>
+      <c r="H79" t="s">
+        <v>152</v>
+      </c>
+      <c r="J79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" t="s">
+        <v>33</v>
+      </c>
+      <c r="F80" t="s">
+        <v>7</v>
+      </c>
+      <c r="J80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>144</v>
+      </c>
+      <c r="E81" t="s">
+        <v>33</v>
+      </c>
+      <c r="F81" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" t="s">
+        <v>153</v>
+      </c>
+      <c r="H81" t="s">
+        <v>154</v>
+      </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>144</v>
+      </c>
+      <c r="E82" t="s">
+        <v>33</v>
+      </c>
+      <c r="F82" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="2">
+        <v>45474</v>
+      </c>
+      <c r="J82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>25</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>36</v>
+      </c>
+      <c r="E83" t="s">
+        <v>33</v>
+      </c>
+      <c r="F83" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" t="s">
+        <v>155</v>
+      </c>
+      <c r="H83" t="s">
+        <v>156</v>
+      </c>
+      <c r="J83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>144</v>
+      </c>
+      <c r="E84" t="s">
+        <v>33</v>
+      </c>
+      <c r="F84" t="s">
+        <v>7</v>
+      </c>
+      <c r="G84" t="s">
+        <v>157</v>
+      </c>
+      <c r="H84" t="s">
+        <v>158</v>
+      </c>
+      <c r="J84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>25</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>159</v>
+      </c>
+      <c r="E85" t="s">
+        <v>33</v>
+      </c>
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" s="2">
+        <v>44440</v>
+      </c>
+      <c r="H85" t="s">
+        <v>160</v>
+      </c>
+      <c r="J85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>37</v>
+      </c>
+      <c r="E86" t="s">
+        <v>33</v>
+      </c>
+      <c r="F86" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" s="2">
+        <v>44531</v>
+      </c>
+      <c r="H86" t="s">
+        <v>161</v>
+      </c>
+      <c r="J86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>144</v>
+      </c>
+      <c r="E87" t="s">
+        <v>33</v>
+      </c>
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="2">
+        <v>45505</v>
+      </c>
+      <c r="J87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>144</v>
+      </c>
+      <c r="E88" t="s">
+        <v>33</v>
+      </c>
+      <c r="F88" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" s="2">
+        <v>45292</v>
+      </c>
+      <c r="J88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>36</v>
+      </c>
+      <c r="E89" t="s">
+        <v>33</v>
+      </c>
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" t="s">
+        <v>163</v>
+      </c>
+      <c r="H89" t="s">
+        <v>162</v>
+      </c>
+      <c r="J89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" t="s">
+        <v>33</v>
+      </c>
+      <c r="F90" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" s="2">
+        <v>45292</v>
+      </c>
+      <c r="H90" t="s">
+        <v>164</v>
+      </c>
+      <c r="J90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>36</v>
+      </c>
+      <c r="E91" t="s">
+        <v>33</v>
+      </c>
+      <c r="F91" t="s">
+        <v>7</v>
+      </c>
+      <c r="G91" t="s">
+        <v>165</v>
+      </c>
+      <c r="H91" t="s">
+        <v>166</v>
+      </c>
+      <c r="J91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" t="s">
+        <v>33</v>
+      </c>
+      <c r="F92" t="s">
+        <v>7</v>
+      </c>
+      <c r="G92" s="2">
+        <v>45323</v>
+      </c>
+      <c r="J92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>144</v>
+      </c>
+      <c r="F93" t="s">
+        <v>7</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H93" t="s">
+        <v>168</v>
+      </c>
+      <c r="J93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F94" t="s">
+        <v>7</v>
+      </c>
+      <c r="G94" s="2">
+        <v>45413</v>
+      </c>
+      <c r="H94" t="s">
+        <v>169</v>
+      </c>
+      <c r="J94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>144</v>
+      </c>
+      <c r="E95" t="s">
+        <v>33</v>
+      </c>
+      <c r="F95" t="s">
+        <v>7</v>
+      </c>
+      <c r="G95" t="s">
+        <v>170</v>
+      </c>
+      <c r="J95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>144</v>
+      </c>
+      <c r="E96" t="s">
+        <v>33</v>
+      </c>
+      <c r="F96" t="s">
+        <v>7</v>
+      </c>
+      <c r="G96" s="2">
+        <v>45383</v>
+      </c>
+      <c r="J96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>25</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" t="s">
+        <v>33</v>
+      </c>
+      <c r="F97" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97" s="2">
+        <v>45809</v>
+      </c>
+      <c r="J97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
+        <v>144</v>
+      </c>
+      <c r="E98" t="s">
+        <v>33</v>
+      </c>
+      <c r="F98" t="s">
+        <v>7</v>
+      </c>
+      <c r="G98" t="s">
+        <v>171</v>
+      </c>
+      <c r="H98" t="s">
+        <v>172</v>
+      </c>
+      <c r="J98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
+        <v>144</v>
+      </c>
+      <c r="E99" t="s">
+        <v>33</v>
+      </c>
+      <c r="F99" t="s">
+        <v>7</v>
+      </c>
+      <c r="G99" t="s">
+        <v>173</v>
+      </c>
+      <c r="H99" t="s">
+        <v>174</v>
+      </c>
+      <c r="J99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>144</v>
+      </c>
+      <c r="E100" t="s">
+        <v>33</v>
+      </c>
+      <c r="F100" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" t="s">
+        <v>167</v>
+      </c>
+      <c r="H100" t="s">
+        <v>175</v>
+      </c>
+      <c r="I100" s="2">
+        <v>46054</v>
+      </c>
+      <c r="J100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>25</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
+        <v>37</v>
+      </c>
+      <c r="E101" t="s">
+        <v>33</v>
+      </c>
+      <c r="F101" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" t="s">
+        <v>33</v>
+      </c>
+      <c r="H101" t="s">
+        <v>176</v>
+      </c>
+      <c r="J101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
+        <v>144</v>
+      </c>
+      <c r="E102" t="s">
+        <v>33</v>
+      </c>
+      <c r="F102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="2">
+        <v>45778</v>
+      </c>
+      <c r="H102" t="s">
+        <v>177</v>
+      </c>
+      <c r="I102" s="2">
+        <v>46143</v>
+      </c>
+      <c r="J102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
+        <v>144</v>
+      </c>
+      <c r="E103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F103" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" t="s">
+        <v>178</v>
+      </c>
+      <c r="H103" t="s">
+        <v>179</v>
+      </c>
+      <c r="I103" s="2">
+        <v>46113</v>
+      </c>
+      <c r="J103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
+        <v>144</v>
+      </c>
+      <c r="E104" t="s">
+        <v>33</v>
+      </c>
+      <c r="F104" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="2">
+        <v>45597</v>
+      </c>
+      <c r="I104" s="2">
+        <v>45962</v>
+      </c>
+      <c r="J104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" t="s">
+        <v>33</v>
+      </c>
+      <c r="F105" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H105" t="s">
+        <v>181</v>
+      </c>
+      <c r="I105" s="2">
+        <v>46023</v>
+      </c>
+      <c r="J105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
+      <c r="D106" t="s">
+        <v>182</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106" t="s">
+        <v>8</v>
+      </c>
+      <c r="J106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>108</v>
+      </c>
+      <c r="E107" t="s">
+        <v>33</v>
+      </c>
+      <c r="F107" t="s">
+        <v>7</v>
+      </c>
+      <c r="G107" t="s">
+        <v>155</v>
+      </c>
+      <c r="J107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108">
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>183</v>
+      </c>
+      <c r="E108" t="s">
+        <v>33</v>
+      </c>
+      <c r="F108" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="2">
+        <v>45566</v>
+      </c>
+      <c r="I108" s="2">
+        <v>45931</v>
+      </c>
+      <c r="J108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109">
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>184</v>
+      </c>
+      <c r="E109" t="s">
+        <v>33</v>
+      </c>
+      <c r="F109" t="s">
+        <v>8</v>
+      </c>
+      <c r="J109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>185</v>
+      </c>
+      <c r="E110" t="s">
+        <v>33</v>
+      </c>
+      <c r="F110" t="s">
+        <v>8</v>
+      </c>
+      <c r="J110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111">
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>186</v>
+      </c>
+      <c r="E111" t="s">
+        <v>33</v>
+      </c>
+      <c r="F111" t="s">
+        <v>8</v>
+      </c>
+      <c r="J111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>25</v>
+      </c>
+      <c r="C112">
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>36</v>
+      </c>
+      <c r="E112" t="s">
+        <v>33</v>
+      </c>
+      <c r="F112" t="s">
+        <v>9</v>
+      </c>
+      <c r="H112" t="s">
+        <v>187</v>
+      </c>
+      <c r="I112" s="2">
+        <v>45992</v>
+      </c>
+      <c r="J112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>326</v>
+      </c>
+      <c r="E113" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113" t="s">
+        <v>8</v>
+      </c>
+      <c r="J113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114">
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>188</v>
+      </c>
+      <c r="E114" t="s">
+        <v>33</v>
+      </c>
+      <c r="F114" t="s">
+        <v>8</v>
+      </c>
+      <c r="J114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>25</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>189</v>
+      </c>
+      <c r="E115" t="s">
+        <v>33</v>
+      </c>
+      <c r="F115" t="s">
+        <v>8</v>
+      </c>
+      <c r="J115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>25</v>
+      </c>
+      <c r="C116">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>190</v>
+      </c>
+      <c r="E116" t="s">
+        <v>33</v>
+      </c>
+      <c r="F116" t="s">
+        <v>8</v>
+      </c>
+      <c r="J116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>25</v>
+      </c>
+      <c r="C117">
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>191</v>
+      </c>
+      <c r="E117" t="s">
+        <v>33</v>
+      </c>
+      <c r="F117" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="2">
+        <v>45261</v>
+      </c>
+      <c r="J117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118">
+        <v>6</v>
+      </c>
+      <c r="D118" t="s">
+        <v>192</v>
+      </c>
+      <c r="E118" t="s">
+        <v>33</v>
+      </c>
+      <c r="F118" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="2">
+        <v>45778</v>
+      </c>
+      <c r="J118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119">
+        <v>6</v>
+      </c>
+      <c r="D119" t="s">
+        <v>193</v>
+      </c>
+      <c r="E119" t="s">
+        <v>33</v>
+      </c>
+      <c r="F119" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" s="2">
+        <v>45627</v>
+      </c>
+      <c r="J119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120">
+        <v>7</v>
+      </c>
+      <c r="D120" t="s">
+        <v>195</v>
+      </c>
+      <c r="E120" t="s">
+        <v>33</v>
+      </c>
+      <c r="F120" t="s">
+        <v>8</v>
+      </c>
+      <c r="J120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121">
+        <v>7</v>
+      </c>
+      <c r="D121" t="s">
+        <v>196</v>
+      </c>
+      <c r="E121" t="s">
+        <v>33</v>
+      </c>
+      <c r="F121" t="s">
+        <v>9</v>
+      </c>
+      <c r="H121" t="s">
+        <v>194</v>
+      </c>
+      <c r="J121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>196</v>
+      </c>
+      <c r="E122" t="s">
+        <v>33</v>
+      </c>
+      <c r="F122" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" s="2">
+        <v>45292</v>
+      </c>
+      <c r="H122" t="s">
+        <v>164</v>
+      </c>
+      <c r="J122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123">
+        <v>7</v>
+      </c>
+      <c r="D123" t="s">
+        <v>196</v>
+      </c>
+      <c r="E123" t="s">
+        <v>33</v>
+      </c>
+      <c r="F123" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" t="s">
+        <v>197</v>
+      </c>
+      <c r="J123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124">
+        <v>7</v>
+      </c>
+      <c r="D124" t="s">
+        <v>198</v>
+      </c>
+      <c r="E124" t="s">
+        <v>33</v>
+      </c>
+      <c r="F124" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" t="s">
+        <v>199</v>
+      </c>
+      <c r="H124" t="s">
+        <v>200</v>
+      </c>
+      <c r="J124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125">
+        <v>7</v>
+      </c>
+      <c r="D125" t="s">
+        <v>196</v>
+      </c>
+      <c r="E125" t="s">
+        <v>33</v>
+      </c>
+      <c r="F125" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" t="s">
+        <v>201</v>
+      </c>
+      <c r="J125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126">
+        <v>7</v>
+      </c>
+      <c r="D126" t="s">
+        <v>108</v>
+      </c>
+      <c r="E126" t="s">
+        <v>33</v>
+      </c>
+      <c r="F126" t="s">
+        <v>8</v>
+      </c>
+      <c r="G126" t="s">
+        <v>202</v>
+      </c>
+      <c r="H126" t="s">
+        <v>203</v>
+      </c>
+      <c r="J126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>25</v>
+      </c>
+      <c r="C127">
+        <v>7</v>
+      </c>
+      <c r="D127" t="s">
+        <v>67</v>
+      </c>
+      <c r="E127" t="s">
+        <v>33</v>
+      </c>
+      <c r="F127" t="s">
+        <v>8</v>
+      </c>
+      <c r="G127" s="2">
+        <v>44866</v>
+      </c>
+      <c r="J127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>327</v>
+      </c>
+      <c r="E128" t="s">
+        <v>33</v>
+      </c>
+      <c r="F128" t="s">
+        <v>8</v>
+      </c>
+      <c r="J128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>204</v>
+      </c>
+      <c r="E129" t="s">
+        <v>33</v>
+      </c>
+      <c r="F129" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" t="s">
+        <v>205</v>
+      </c>
+      <c r="J129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>25</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>328</v>
+      </c>
+      <c r="E130" t="s">
+        <v>33</v>
+      </c>
+      <c r="F130" t="s">
+        <v>8</v>
+      </c>
+      <c r="J130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>206</v>
+      </c>
+      <c r="E131" t="s">
+        <v>33</v>
+      </c>
+      <c r="F131" t="s">
+        <v>8</v>
+      </c>
+      <c r="J131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>25</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>207</v>
+      </c>
+      <c r="E132" t="s">
+        <v>33</v>
+      </c>
+      <c r="F132" t="s">
+        <v>8</v>
+      </c>
+      <c r="J132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>25</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>208</v>
+      </c>
+      <c r="E133" t="s">
+        <v>33</v>
+      </c>
+      <c r="F133" t="s">
+        <v>8</v>
+      </c>
+      <c r="J133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>209</v>
+      </c>
+      <c r="E134" t="s">
+        <v>33</v>
+      </c>
+      <c r="F134" t="s">
+        <v>8</v>
+      </c>
+      <c r="J134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>210</v>
+      </c>
+      <c r="E135" t="s">
+        <v>33</v>
+      </c>
+      <c r="F135" t="s">
+        <v>8</v>
+      </c>
+      <c r="J135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>25</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>211</v>
+      </c>
+      <c r="E136" t="s">
+        <v>33</v>
+      </c>
+      <c r="F136" t="s">
+        <v>8</v>
+      </c>
+      <c r="J136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>212</v>
+      </c>
+      <c r="E137" t="s">
+        <v>33</v>
+      </c>
+      <c r="F137" t="s">
+        <v>8</v>
+      </c>
+      <c r="J137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>213</v>
+      </c>
+      <c r="E138" t="s">
+        <v>33</v>
+      </c>
+      <c r="F138" t="s">
+        <v>8</v>
+      </c>
+      <c r="J138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>329</v>
+      </c>
+      <c r="E139" t="s">
+        <v>33</v>
+      </c>
+      <c r="F139" t="s">
+        <v>11</v>
+      </c>
+      <c r="J139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>331</v>
+      </c>
+      <c r="E140" t="s">
+        <v>33</v>
+      </c>
+      <c r="F140" t="s">
+        <v>8</v>
+      </c>
+      <c r="J140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>332</v>
+      </c>
+      <c r="E141" t="s">
+        <v>33</v>
+      </c>
+      <c r="F141" t="s">
+        <v>8</v>
+      </c>
+      <c r="J141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>214</v>
+      </c>
+      <c r="E142" t="s">
+        <v>33</v>
+      </c>
+      <c r="F142" t="s">
+        <v>8</v>
+      </c>
+      <c r="J142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>215</v>
+      </c>
+      <c r="E143" t="s">
+        <v>33</v>
+      </c>
+      <c r="F143" t="s">
+        <v>8</v>
+      </c>
+      <c r="J143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>25</v>
+      </c>
+      <c r="C144">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>216</v>
+      </c>
+      <c r="E144" t="s">
+        <v>33</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+      <c r="J144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>25</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>217</v>
+      </c>
+      <c r="E145" t="s">
+        <v>33</v>
+      </c>
+      <c r="F145" t="s">
+        <v>8</v>
+      </c>
+      <c r="J145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>25</v>
+      </c>
+      <c r="C146">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>218</v>
+      </c>
+      <c r="E146" t="s">
+        <v>33</v>
+      </c>
+      <c r="F146" t="s">
+        <v>8</v>
+      </c>
+      <c r="J146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>25</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147" t="s">
+        <v>219</v>
+      </c>
+      <c r="E147" t="s">
+        <v>33</v>
+      </c>
+      <c r="F147" t="s">
+        <v>8</v>
+      </c>
+      <c r="J147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148" t="s">
+        <v>220</v>
+      </c>
+      <c r="E148" t="s">
+        <v>33</v>
+      </c>
+      <c r="F148" t="s">
+        <v>11</v>
+      </c>
+      <c r="J148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>25</v>
+      </c>
+      <c r="C149">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s">
+        <v>221</v>
+      </c>
+      <c r="E149" t="s">
+        <v>33</v>
+      </c>
+      <c r="F149" t="s">
+        <v>8</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>25</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150" t="s">
+        <v>222</v>
+      </c>
+      <c r="E150" t="s">
+        <v>33</v>
+      </c>
+      <c r="F150" t="s">
+        <v>8</v>
+      </c>
+      <c r="J150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>25</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>223</v>
+      </c>
+      <c r="E151" t="s">
+        <v>33</v>
+      </c>
+      <c r="F151" t="s">
+        <v>8</v>
+      </c>
+      <c r="J151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>25</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>224</v>
+      </c>
+      <c r="E152" t="s">
+        <v>33</v>
+      </c>
+      <c r="F152" t="s">
+        <v>8</v>
+      </c>
+      <c r="J152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>25</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>225</v>
+      </c>
+      <c r="E153" t="s">
+        <v>33</v>
+      </c>
+      <c r="F153" t="s">
+        <v>8</v>
+      </c>
+      <c r="J153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>226</v>
+      </c>
+      <c r="E154" t="s">
+        <v>33</v>
+      </c>
+      <c r="F154" t="s">
+        <v>8</v>
+      </c>
+      <c r="J154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>25</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+      <c r="D155" t="s">
+        <v>330</v>
+      </c>
+      <c r="E155" t="s">
+        <v>33</v>
+      </c>
+      <c r="F155" t="s">
+        <v>8</v>
+      </c>
+      <c r="J155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>25</v>
+      </c>
+      <c r="C156">
+        <v>2</v>
+      </c>
+      <c r="D156" t="s">
+        <v>227</v>
+      </c>
+      <c r="E156" t="s">
+        <v>33</v>
+      </c>
+      <c r="F156" t="s">
+        <v>8</v>
+      </c>
+      <c r="J156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>25</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157" t="s">
+        <v>228</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157" t="s">
+        <v>8</v>
+      </c>
+      <c r="J157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158" t="s">
+        <v>228</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158" t="s">
+        <v>8</v>
+      </c>
+      <c r="J158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>25</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159" t="s">
+        <v>229</v>
+      </c>
+      <c r="E159" t="s">
+        <v>33</v>
+      </c>
+      <c r="F159" t="s">
+        <v>8</v>
+      </c>
+      <c r="J159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>25</v>
+      </c>
+      <c r="C160">
+        <v>3</v>
+      </c>
+      <c r="E160" t="s">
+        <v>33</v>
+      </c>
+      <c r="F160" t="s">
+        <v>7</v>
+      </c>
+      <c r="H160" t="s">
+        <v>230</v>
+      </c>
+      <c r="J160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>25</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="D161" t="s">
+        <v>231</v>
+      </c>
+      <c r="E161" t="s">
+        <v>33</v>
+      </c>
+      <c r="F161" t="s">
+        <v>7</v>
+      </c>
+      <c r="I161" s="2">
+        <v>43709</v>
+      </c>
+      <c r="J161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>25</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+      <c r="D162" t="s">
+        <v>232</v>
+      </c>
+      <c r="E162" t="s">
+        <v>33</v>
+      </c>
+      <c r="F162" t="s">
+        <v>7</v>
+      </c>
+      <c r="H162" t="s">
+        <v>233</v>
+      </c>
+      <c r="J162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>25</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+      <c r="D163" t="s">
+        <v>234</v>
+      </c>
+      <c r="E163" t="s">
+        <v>33</v>
+      </c>
+      <c r="F163" t="s">
+        <v>8</v>
+      </c>
+      <c r="J163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>25</v>
+      </c>
+      <c r="C164">
+        <v>3</v>
+      </c>
+      <c r="D164" t="s">
+        <v>235</v>
+      </c>
+      <c r="E164" t="s">
+        <v>33</v>
+      </c>
+      <c r="F164" t="s">
+        <v>8</v>
+      </c>
+      <c r="J164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>25</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+      <c r="D165" t="s">
+        <v>236</v>
+      </c>
+      <c r="E165" t="s">
+        <v>33</v>
+      </c>
+      <c r="F165" t="s">
+        <v>8</v>
+      </c>
+      <c r="J165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166" t="s">
+        <v>241</v>
+      </c>
+      <c r="E166" t="s">
+        <v>33</v>
+      </c>
+      <c r="F166" t="s">
+        <v>8</v>
+      </c>
+      <c r="J166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>25</v>
+      </c>
+      <c r="C167">
+        <v>3</v>
+      </c>
+      <c r="D167" t="s">
+        <v>242</v>
+      </c>
+      <c r="E167" t="s">
+        <v>33</v>
+      </c>
+      <c r="F167" t="s">
+        <v>7</v>
+      </c>
+      <c r="J167">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>25</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+      <c r="D168" t="s">
+        <v>232</v>
+      </c>
+      <c r="E168" t="s">
+        <v>33</v>
+      </c>
+      <c r="F168" t="s">
+        <v>8</v>
+      </c>
+      <c r="J168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>25</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169" t="s">
+        <v>237</v>
+      </c>
+      <c r="E169" t="s">
+        <v>33</v>
+      </c>
+      <c r="F169" t="s">
+        <v>8</v>
+      </c>
+      <c r="J169">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>25</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+      <c r="D170" t="s">
+        <v>229</v>
+      </c>
+      <c r="E170" t="s">
+        <v>33</v>
+      </c>
+      <c r="F170" t="s">
+        <v>7</v>
+      </c>
+      <c r="J170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>25</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171" t="s">
+        <v>238</v>
+      </c>
+      <c r="E171" t="s">
+        <v>33</v>
+      </c>
+      <c r="F171" t="s">
+        <v>8</v>
+      </c>
+      <c r="J171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>25</v>
+      </c>
+      <c r="D172" t="s">
+        <v>239</v>
+      </c>
+      <c r="E172" t="s">
+        <v>33</v>
+      </c>
+      <c r="J172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>25</v>
+      </c>
+      <c r="D173" t="s">
+        <v>231</v>
+      </c>
+      <c r="E173" t="s">
+        <v>33</v>
+      </c>
+      <c r="F173" t="s">
+        <v>8</v>
+      </c>
+      <c r="J173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>25</v>
+      </c>
+      <c r="C174">
+        <v>4</v>
+      </c>
+      <c r="D174" t="s">
+        <v>240</v>
+      </c>
+      <c r="E174" t="s">
+        <v>33</v>
+      </c>
+      <c r="J174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>25</v>
+      </c>
+      <c r="C175">
+        <v>5</v>
+      </c>
+      <c r="D175" t="s">
+        <v>243</v>
+      </c>
+      <c r="E175" t="s">
+        <v>33</v>
+      </c>
+      <c r="J175">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>25</v>
+      </c>
+      <c r="C176">
+        <v>5</v>
+      </c>
+      <c r="D176" t="s">
+        <v>244</v>
+      </c>
+      <c r="E176" t="s">
+        <v>33</v>
+      </c>
+      <c r="F176" t="s">
+        <v>7</v>
+      </c>
+      <c r="J176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>25</v>
+      </c>
+      <c r="C177">
+        <v>5</v>
+      </c>
+      <c r="D177" t="s">
+        <v>245</v>
+      </c>
+      <c r="E177" t="s">
+        <v>33</v>
+      </c>
+      <c r="F177" t="s">
+        <v>7</v>
+      </c>
+      <c r="J177">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>25</v>
+      </c>
+      <c r="C178">
+        <v>5</v>
+      </c>
+      <c r="D178" t="s">
+        <v>246</v>
+      </c>
+      <c r="E178" t="s">
+        <v>33</v>
+      </c>
+      <c r="F178" t="s">
+        <v>8</v>
+      </c>
+      <c r="J178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>25</v>
+      </c>
+      <c r="C179">
+        <v>5</v>
+      </c>
+      <c r="D179" t="s">
+        <v>247</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179" t="s">
+        <v>8</v>
+      </c>
+      <c r="J179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>25</v>
+      </c>
+      <c r="C180">
+        <v>5</v>
+      </c>
+      <c r="D180" t="s">
+        <v>247</v>
+      </c>
+      <c r="E180">
+        <v>2</v>
+      </c>
+      <c r="F180" t="s">
+        <v>8</v>
+      </c>
+      <c r="J180">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>25</v>
+      </c>
+      <c r="C181">
+        <v>5</v>
+      </c>
+      <c r="D181" t="s">
+        <v>247</v>
+      </c>
+      <c r="E181">
+        <v>3</v>
+      </c>
+      <c r="F181" t="s">
+        <v>8</v>
+      </c>
+      <c r="J181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>25</v>
+      </c>
+      <c r="C182">
+        <v>5</v>
+      </c>
+      <c r="D182" t="s">
+        <v>247</v>
+      </c>
+      <c r="E182">
+        <v>4</v>
+      </c>
+      <c r="F182" t="s">
+        <v>8</v>
+      </c>
+      <c r="J182">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>25</v>
+      </c>
+      <c r="C183">
+        <v>5</v>
+      </c>
+      <c r="D183" t="s">
+        <v>247</v>
+      </c>
+      <c r="E183">
+        <v>5</v>
+      </c>
+      <c r="F183" t="s">
+        <v>8</v>
+      </c>
+      <c r="J183">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>25</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="D184" t="s">
+        <v>247</v>
+      </c>
+      <c r="E184">
+        <v>6</v>
+      </c>
+      <c r="F184" t="s">
+        <v>7</v>
+      </c>
+      <c r="J184">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>25</v>
+      </c>
+      <c r="C185">
+        <v>5</v>
+      </c>
+      <c r="D185" t="s">
+        <v>248</v>
+      </c>
+      <c r="E185" t="s">
+        <v>33</v>
+      </c>
+      <c r="F185" t="s">
+        <v>7</v>
+      </c>
+      <c r="J185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>25</v>
+      </c>
+      <c r="C186">
+        <v>5</v>
+      </c>
+      <c r="D186" t="s">
+        <v>249</v>
+      </c>
+      <c r="E186" t="s">
+        <v>33</v>
+      </c>
+      <c r="F186" t="s">
+        <v>8</v>
+      </c>
+      <c r="J186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>25</v>
+      </c>
+      <c r="C187">
+        <v>5</v>
+      </c>
+      <c r="D187" t="s">
+        <v>250</v>
+      </c>
+      <c r="E187" t="s">
+        <v>33</v>
+      </c>
+      <c r="F187" t="s">
+        <v>8</v>
+      </c>
+      <c r="J187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>25</v>
+      </c>
+      <c r="C188">
+        <v>5</v>
+      </c>
+      <c r="D188" t="s">
+        <v>251</v>
+      </c>
+      <c r="E188" t="s">
+        <v>33</v>
+      </c>
+      <c r="F188" t="s">
+        <v>7</v>
+      </c>
+      <c r="J188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>25</v>
+      </c>
+      <c r="C189">
+        <v>5</v>
+      </c>
+      <c r="D189" t="s">
+        <v>252</v>
+      </c>
+      <c r="E189" t="s">
+        <v>33</v>
+      </c>
+      <c r="F189" t="s">
+        <v>8</v>
+      </c>
+      <c r="J189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>25</v>
+      </c>
+      <c r="C190">
+        <v>5</v>
+      </c>
+      <c r="D190" t="s">
+        <v>253</v>
+      </c>
+      <c r="E190" t="s">
+        <v>33</v>
+      </c>
+      <c r="J190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>25</v>
+      </c>
+      <c r="C191">
+        <v>5</v>
+      </c>
+      <c r="D191" t="s">
+        <v>254</v>
+      </c>
+      <c r="E191" t="s">
+        <v>33</v>
+      </c>
+      <c r="F191" t="s">
+        <v>7</v>
+      </c>
+      <c r="J191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>25</v>
+      </c>
+      <c r="C192">
+        <v>5</v>
+      </c>
+      <c r="D192" t="s">
+        <v>255</v>
+      </c>
+      <c r="E192" t="s">
+        <v>33</v>
+      </c>
+      <c r="F192" t="s">
+        <v>7</v>
+      </c>
+      <c r="J192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>25</v>
+      </c>
+      <c r="C193">
+        <v>5</v>
+      </c>
+      <c r="D193" t="s">
+        <v>256</v>
+      </c>
+      <c r="E193" t="s">
+        <v>33</v>
+      </c>
+      <c r="F193" t="s">
+        <v>7</v>
+      </c>
+      <c r="J193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>25</v>
+      </c>
+      <c r="C194">
+        <v>5</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E194" t="s">
+        <v>33</v>
+      </c>
+      <c r="F194" t="s">
+        <v>8</v>
+      </c>
+      <c r="J194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>25</v>
+      </c>
+      <c r="C195">
+        <v>5</v>
+      </c>
+      <c r="D195" t="s">
+        <v>258</v>
+      </c>
+      <c r="E195" t="s">
+        <v>33</v>
+      </c>
+      <c r="F195" t="s">
+        <v>8</v>
+      </c>
+      <c r="J195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>25</v>
+      </c>
+      <c r="C196">
+        <v>5</v>
+      </c>
+      <c r="D196" t="s">
+        <v>259</v>
+      </c>
+      <c r="E196" t="s">
+        <v>33</v>
+      </c>
+      <c r="G196" s="2">
+        <v>43525</v>
+      </c>
+      <c r="J196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>25</v>
+      </c>
+      <c r="C197">
+        <v>6</v>
+      </c>
+      <c r="D197" t="s">
+        <v>260</v>
+      </c>
+      <c r="E197" t="s">
+        <v>33</v>
+      </c>
+      <c r="F197" t="s">
+        <v>8</v>
+      </c>
+      <c r="J197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>25</v>
+      </c>
+      <c r="C198">
+        <v>6</v>
+      </c>
+      <c r="D198" t="s">
+        <v>261</v>
+      </c>
+      <c r="E198" t="s">
+        <v>33</v>
+      </c>
+      <c r="F198" t="s">
+        <v>7</v>
+      </c>
+      <c r="J198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>25</v>
+      </c>
+      <c r="C199">
+        <v>6</v>
+      </c>
+      <c r="D199" t="s">
+        <v>262</v>
+      </c>
+      <c r="E199" t="s">
+        <v>33</v>
+      </c>
+      <c r="F199" t="s">
+        <v>8</v>
+      </c>
+      <c r="G199" s="2">
+        <v>43191</v>
+      </c>
+      <c r="J199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>25</v>
+      </c>
+      <c r="C200">
+        <v>6</v>
+      </c>
+      <c r="D200" t="s">
+        <v>263</v>
+      </c>
+      <c r="E200" t="s">
+        <v>33</v>
+      </c>
+      <c r="F200" t="s">
+        <v>8</v>
+      </c>
+      <c r="J200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>25</v>
+      </c>
+      <c r="C201">
+        <v>6</v>
+      </c>
+      <c r="D201" t="s">
+        <v>264</v>
+      </c>
+      <c r="E201" t="s">
+        <v>33</v>
+      </c>
+      <c r="F201" t="s">
+        <v>7</v>
+      </c>
+      <c r="J201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>25</v>
+      </c>
+      <c r="C202">
+        <v>6</v>
+      </c>
+      <c r="D202" t="s">
+        <v>265</v>
+      </c>
+      <c r="E202" t="s">
+        <v>33</v>
+      </c>
+      <c r="J202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>25</v>
+      </c>
+      <c r="C203">
+        <v>6</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E203" t="s">
+        <v>33</v>
+      </c>
+      <c r="F203" t="s">
+        <v>7</v>
+      </c>
+      <c r="J203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>25</v>
+      </c>
+      <c r="C204">
+        <v>6</v>
+      </c>
+      <c r="D204" t="s">
+        <v>267</v>
+      </c>
+      <c r="E204" t="s">
+        <v>33</v>
+      </c>
+      <c r="F204" t="s">
+        <v>7</v>
+      </c>
+      <c r="J204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>25</v>
+      </c>
+      <c r="C205">
+        <v>6</v>
+      </c>
+      <c r="D205" t="s">
+        <v>268</v>
+      </c>
+      <c r="E205" t="s">
+        <v>33</v>
+      </c>
+      <c r="F205" t="s">
+        <v>7</v>
+      </c>
+      <c r="J205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>25</v>
+      </c>
+      <c r="C206">
+        <v>6</v>
+      </c>
+      <c r="D206" t="s">
+        <v>269</v>
+      </c>
+      <c r="E206" t="s">
+        <v>33</v>
+      </c>
+      <c r="F206" t="s">
+        <v>7</v>
+      </c>
+      <c r="J206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>25</v>
+      </c>
+      <c r="C207">
+        <v>6</v>
+      </c>
+      <c r="D207" t="s">
+        <v>270</v>
+      </c>
+      <c r="E207" t="s">
+        <v>33</v>
+      </c>
+      <c r="F207" t="s">
+        <v>7</v>
+      </c>
+      <c r="J207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>25</v>
+      </c>
+      <c r="C208">
+        <v>6</v>
+      </c>
+      <c r="D208" t="s">
+        <v>271</v>
+      </c>
+      <c r="E208" t="s">
+        <v>33</v>
+      </c>
+      <c r="F208" t="s">
+        <v>11</v>
+      </c>
+      <c r="J208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>25</v>
+      </c>
+      <c r="C209">
+        <v>7</v>
+      </c>
+      <c r="D209" t="s">
+        <v>272</v>
+      </c>
+      <c r="E209" t="s">
+        <v>33</v>
+      </c>
+      <c r="F209" t="s">
+        <v>11</v>
+      </c>
+      <c r="J209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>25</v>
+      </c>
+      <c r="C210">
+        <v>7</v>
+      </c>
+      <c r="D210" t="s">
+        <v>273</v>
+      </c>
+      <c r="E210" t="s">
+        <v>33</v>
+      </c>
+      <c r="F210" t="s">
+        <v>7</v>
+      </c>
+      <c r="J210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>25</v>
+      </c>
+      <c r="C211">
+        <v>7</v>
+      </c>
+      <c r="D211" t="s">
+        <v>273</v>
+      </c>
+      <c r="E211" t="s">
+        <v>33</v>
+      </c>
+      <c r="F211" t="s">
+        <v>8</v>
+      </c>
+      <c r="J211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>25</v>
+      </c>
+      <c r="C212">
+        <v>7</v>
+      </c>
+      <c r="D212" t="s">
+        <v>273</v>
+      </c>
+      <c r="E212" t="s">
+        <v>33</v>
+      </c>
+      <c r="F212" t="s">
+        <v>8</v>
+      </c>
+      <c r="J212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>25</v>
+      </c>
+      <c r="C213">
+        <v>7</v>
+      </c>
+      <c r="D213" t="s">
+        <v>274</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213" t="s">
+        <v>8</v>
+      </c>
+      <c r="J213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>25</v>
+      </c>
+      <c r="C214">
+        <v>7</v>
+      </c>
+      <c r="D214" t="s">
+        <v>274</v>
+      </c>
+      <c r="E214">
+        <v>3</v>
+      </c>
+      <c r="F214" t="s">
+        <v>8</v>
+      </c>
+      <c r="J214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>25</v>
+      </c>
+      <c r="C215">
+        <v>7</v>
+      </c>
+      <c r="D215" t="s">
+        <v>275</v>
+      </c>
+      <c r="E215" t="s">
+        <v>33</v>
+      </c>
+      <c r="F215" t="s">
+        <v>11</v>
+      </c>
+      <c r="J215">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="216" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>25</v>
+      </c>
+      <c r="C216">
+        <v>1</v>
+      </c>
+      <c r="D216" t="s">
+        <v>276</v>
+      </c>
+      <c r="E216" t="s">
+        <v>33</v>
+      </c>
+      <c r="F216" t="s">
+        <v>11</v>
+      </c>
+      <c r="J216">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>25</v>
+      </c>
+      <c r="C217">
+        <v>2</v>
+      </c>
+      <c r="D217" t="s">
+        <v>277</v>
+      </c>
+      <c r="E217" t="s">
+        <v>33</v>
+      </c>
+      <c r="F217" t="s">
+        <v>8</v>
+      </c>
+      <c r="J217">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>25</v>
+      </c>
+      <c r="C218">
+        <v>2</v>
+      </c>
+      <c r="D218" t="s">
+        <v>277</v>
+      </c>
+      <c r="E218" t="s">
+        <v>33</v>
+      </c>
+      <c r="F218" t="s">
+        <v>7</v>
+      </c>
+      <c r="J218">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>25</v>
+      </c>
+      <c r="C219">
+        <v>2</v>
+      </c>
+      <c r="D219" t="s">
+        <v>278</v>
+      </c>
+      <c r="E219" t="s">
+        <v>33</v>
+      </c>
+      <c r="F219" t="s">
+        <v>8</v>
+      </c>
+      <c r="J219">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>25</v>
+      </c>
+      <c r="C220">
+        <v>2</v>
+      </c>
+      <c r="D220" t="s">
+        <v>279</v>
+      </c>
+      <c r="E220" t="s">
+        <v>33</v>
+      </c>
+      <c r="F220" t="s">
+        <v>7</v>
+      </c>
+      <c r="J220">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>25</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>280</v>
+      </c>
+      <c r="E221" t="s">
+        <v>33</v>
+      </c>
+      <c r="F221" t="s">
+        <v>7</v>
+      </c>
+      <c r="J221">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>25</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+      <c r="D222" t="s">
+        <v>281</v>
+      </c>
+      <c r="E222" t="s">
+        <v>33</v>
+      </c>
+      <c r="F222" t="s">
+        <v>7</v>
+      </c>
+      <c r="J222">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>25</v>
+      </c>
+      <c r="C223">
+        <v>2</v>
+      </c>
+      <c r="D223" t="s">
+        <v>280</v>
+      </c>
+      <c r="E223" t="s">
+        <v>33</v>
+      </c>
+      <c r="F223" t="s">
+        <v>8</v>
+      </c>
+      <c r="J223">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>25</v>
+      </c>
+      <c r="C224">
+        <v>2</v>
+      </c>
+      <c r="D224" t="s">
+        <v>282</v>
+      </c>
+      <c r="E224" t="s">
+        <v>33</v>
+      </c>
+      <c r="F224" t="s">
+        <v>7</v>
+      </c>
+      <c r="J224">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>25</v>
+      </c>
+      <c r="C225">
+        <v>2</v>
+      </c>
+      <c r="D225" t="s">
+        <v>284</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225" t="s">
+        <v>7</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J225">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>25</v>
+      </c>
+      <c r="C226">
+        <v>2</v>
+      </c>
+      <c r="D226" t="s">
+        <v>284</v>
+      </c>
+      <c r="E226">
+        <v>2</v>
+      </c>
+      <c r="F226" t="s">
+        <v>7</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J226">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>25</v>
+      </c>
+      <c r="C227">
+        <v>2</v>
+      </c>
+      <c r="D227" t="s">
+        <v>284</v>
+      </c>
+      <c r="E227">
+        <v>3</v>
+      </c>
+      <c r="F227" t="s">
+        <v>7</v>
+      </c>
+      <c r="H227" s="2"/>
+      <c r="J227">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>25</v>
+      </c>
+      <c r="C228">
+        <v>2</v>
+      </c>
+      <c r="D228" t="s">
+        <v>284</v>
+      </c>
+      <c r="E228">
+        <v>4</v>
+      </c>
+      <c r="F228" t="s">
+        <v>7</v>
+      </c>
+      <c r="H228" s="2"/>
+      <c r="J228">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>25</v>
+      </c>
+      <c r="C229">
+        <v>2</v>
+      </c>
+      <c r="D229" t="s">
+        <v>283</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229" t="s">
+        <v>7</v>
+      </c>
+      <c r="J229">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>25</v>
+      </c>
+      <c r="C230">
+        <v>2</v>
+      </c>
+      <c r="D230" t="s">
+        <v>283</v>
+      </c>
+      <c r="E230">
+        <v>2</v>
+      </c>
+      <c r="F230" t="s">
+        <v>7</v>
+      </c>
+      <c r="J230">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>25</v>
+      </c>
+      <c r="C231">
+        <v>2</v>
+      </c>
+      <c r="D231" t="s">
+        <v>283</v>
+      </c>
+      <c r="E231">
+        <v>3</v>
+      </c>
+      <c r="F231" t="s">
+        <v>7</v>
+      </c>
+      <c r="J231">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>25</v>
+      </c>
+      <c r="C232">
+        <v>3</v>
+      </c>
+      <c r="D232" t="s">
+        <v>287</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232" t="s">
+        <v>7</v>
+      </c>
+      <c r="J232">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>25</v>
+      </c>
+      <c r="C233">
+        <v>3</v>
+      </c>
+      <c r="D233" t="s">
+        <v>287</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233" t="s">
+        <v>8</v>
+      </c>
+      <c r="J233">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>25</v>
+      </c>
+      <c r="C234">
+        <v>3</v>
+      </c>
+      <c r="D234" t="s">
+        <v>287</v>
+      </c>
+      <c r="E234">
+        <v>2</v>
+      </c>
+      <c r="F234" t="s">
+        <v>8</v>
+      </c>
+      <c r="J234">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>25</v>
+      </c>
+      <c r="C235">
+        <v>3</v>
+      </c>
+      <c r="D235" t="s">
+        <v>287</v>
+      </c>
+      <c r="E235">
+        <v>3</v>
+      </c>
+      <c r="F235" t="s">
+        <v>8</v>
+      </c>
+      <c r="J235">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>25</v>
+      </c>
+      <c r="C236">
+        <v>3</v>
+      </c>
+      <c r="D236" t="s">
+        <v>287</v>
+      </c>
+      <c r="E236">
+        <v>4</v>
+      </c>
+      <c r="F236" t="s">
+        <v>8</v>
+      </c>
+      <c r="J236">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>25</v>
+      </c>
+      <c r="C237">
+        <v>3</v>
+      </c>
+      <c r="D237" t="s">
+        <v>287</v>
+      </c>
+      <c r="E237">
+        <v>5</v>
+      </c>
+      <c r="F237" t="s">
+        <v>8</v>
+      </c>
+      <c r="J237">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>25</v>
+      </c>
+      <c r="C238">
+        <v>3</v>
+      </c>
+      <c r="D238" t="s">
+        <v>287</v>
+      </c>
+      <c r="E238">
+        <v>6</v>
+      </c>
+      <c r="F238" t="s">
+        <v>8</v>
+      </c>
+      <c r="J238">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>25</v>
+      </c>
+      <c r="C239">
+        <v>3</v>
+      </c>
+      <c r="D239" t="s">
+        <v>287</v>
+      </c>
+      <c r="E239">
+        <v>7</v>
+      </c>
+      <c r="F239" t="s">
+        <v>8</v>
+      </c>
+      <c r="J239">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>25</v>
+      </c>
+      <c r="C240">
+        <v>3</v>
+      </c>
+      <c r="D240" t="s">
+        <v>287</v>
+      </c>
+      <c r="E240">
+        <v>2</v>
+      </c>
+      <c r="F240" t="s">
+        <v>7</v>
+      </c>
+      <c r="J240">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>25</v>
+      </c>
+      <c r="C241">
+        <v>3</v>
+      </c>
+      <c r="D241" t="s">
+        <v>287</v>
+      </c>
+      <c r="E241">
+        <v>3</v>
+      </c>
+      <c r="F241" t="s">
+        <v>7</v>
+      </c>
+      <c r="J241">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>25</v>
+      </c>
+      <c r="C242">
+        <v>3</v>
+      </c>
+      <c r="D242" t="s">
+        <v>287</v>
+      </c>
+      <c r="E242">
+        <v>4</v>
+      </c>
+      <c r="F242" t="s">
+        <v>7</v>
+      </c>
+      <c r="J242">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>25</v>
+      </c>
+      <c r="C243">
+        <v>3</v>
+      </c>
+      <c r="D243" t="s">
+        <v>288</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243" t="s">
+        <v>7</v>
+      </c>
+      <c r="J243">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>25</v>
+      </c>
+      <c r="C244">
+        <v>3</v>
+      </c>
+      <c r="D244" t="s">
+        <v>288</v>
+      </c>
+      <c r="E244">
+        <v>2</v>
+      </c>
+      <c r="F244" t="s">
+        <v>7</v>
+      </c>
+      <c r="J244">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>25</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+      <c r="D245" t="s">
+        <v>288</v>
+      </c>
+      <c r="E245">
+        <v>3</v>
+      </c>
+      <c r="F245" t="s">
+        <v>7</v>
+      </c>
+      <c r="J245">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>25</v>
+      </c>
+      <c r="C246">
+        <v>3</v>
+      </c>
+      <c r="D246" t="s">
+        <v>288</v>
+      </c>
+      <c r="E246">
+        <v>4</v>
+      </c>
+      <c r="F246" t="s">
+        <v>7</v>
+      </c>
+      <c r="J246">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>25</v>
+      </c>
+      <c r="C247">
+        <v>3</v>
+      </c>
+      <c r="D247" t="s">
+        <v>288</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247" t="s">
+        <v>8</v>
+      </c>
+      <c r="J247">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>25</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+      <c r="D248" t="s">
+        <v>288</v>
+      </c>
+      <c r="E248">
+        <v>2</v>
+      </c>
+      <c r="F248" t="s">
+        <v>8</v>
+      </c>
+      <c r="J248">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>25</v>
+      </c>
+      <c r="C249">
+        <v>3</v>
+      </c>
+      <c r="D249" t="s">
+        <v>288</v>
+      </c>
+      <c r="E249">
+        <v>3</v>
+      </c>
+      <c r="F249" t="s">
+        <v>8</v>
+      </c>
+      <c r="J249">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>25</v>
+      </c>
+      <c r="C250">
+        <v>3</v>
+      </c>
+      <c r="D250" t="s">
+        <v>288</v>
+      </c>
+      <c r="E250">
+        <v>4</v>
+      </c>
+      <c r="F250" t="s">
+        <v>8</v>
+      </c>
+      <c r="J250">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>25</v>
+      </c>
+      <c r="C251">
+        <v>3</v>
+      </c>
+      <c r="D251" t="s">
+        <v>288</v>
+      </c>
+      <c r="E251">
+        <v>5</v>
+      </c>
+      <c r="F251" t="s">
+        <v>8</v>
+      </c>
+      <c r="J251">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>25</v>
+      </c>
+      <c r="C252">
+        <v>4</v>
+      </c>
+      <c r="D252" t="s">
+        <v>289</v>
+      </c>
+      <c r="E252" t="s">
+        <v>33</v>
+      </c>
+      <c r="F252" t="s">
+        <v>7</v>
+      </c>
+      <c r="J252">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>25</v>
+      </c>
+      <c r="C253">
+        <v>4</v>
+      </c>
+      <c r="D253" t="s">
+        <v>290</v>
+      </c>
+      <c r="E253" t="s">
+        <v>33</v>
+      </c>
+      <c r="F253" t="s">
+        <v>7</v>
+      </c>
+      <c r="J253">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>25</v>
+      </c>
+      <c r="C254">
+        <v>4</v>
+      </c>
+      <c r="D254" t="s">
+        <v>291</v>
+      </c>
+      <c r="E254" t="s">
+        <v>33</v>
+      </c>
+      <c r="F254" t="s">
+        <v>7</v>
+      </c>
+      <c r="J254">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>25</v>
+      </c>
+      <c r="C255">
+        <v>4</v>
+      </c>
+      <c r="D255" t="s">
+        <v>292</v>
+      </c>
+      <c r="E255" t="s">
+        <v>33</v>
+      </c>
+      <c r="F255" t="s">
+        <v>7</v>
+      </c>
+      <c r="J255">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>25</v>
+      </c>
+      <c r="C256">
+        <v>4</v>
+      </c>
+      <c r="D256" t="s">
+        <v>293</v>
+      </c>
+      <c r="E256" t="s">
+        <v>33</v>
+      </c>
+      <c r="F256" t="s">
+        <v>8</v>
+      </c>
+      <c r="J256">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="257" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>25</v>
+      </c>
+      <c r="C257">
+        <v>4</v>
+      </c>
+      <c r="D257" t="s">
+        <v>289</v>
+      </c>
+      <c r="E257" t="s">
+        <v>33</v>
+      </c>
+      <c r="F257" t="s">
+        <v>8</v>
+      </c>
+      <c r="J257">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>25</v>
+      </c>
+      <c r="C258">
+        <v>4</v>
+      </c>
+      <c r="D258" t="s">
+        <v>294</v>
+      </c>
+      <c r="E258" t="s">
+        <v>33</v>
+      </c>
+      <c r="F258" t="s">
+        <v>8</v>
+      </c>
+      <c r="J258">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>25</v>
+      </c>
+      <c r="C259">
+        <v>4</v>
+      </c>
+      <c r="D259" t="s">
+        <v>291</v>
+      </c>
+      <c r="E259" t="s">
+        <v>33</v>
+      </c>
+      <c r="F259" t="s">
+        <v>8</v>
+      </c>
+      <c r="J259">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>25</v>
+      </c>
+      <c r="C260">
+        <v>4</v>
+      </c>
+      <c r="D260" t="s">
+        <v>295</v>
+      </c>
+      <c r="E260" t="s">
+        <v>33</v>
+      </c>
+      <c r="F260" t="s">
+        <v>7</v>
+      </c>
+      <c r="J260">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="261" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>25</v>
+      </c>
+      <c r="C261">
+        <v>5</v>
+      </c>
+      <c r="D261" t="s">
+        <v>297</v>
+      </c>
+      <c r="E261" t="s">
+        <v>33</v>
+      </c>
+      <c r="F261" t="s">
+        <v>7</v>
+      </c>
+      <c r="J261">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>25</v>
+      </c>
+      <c r="C262">
+        <v>5</v>
+      </c>
+      <c r="D262" t="s">
+        <v>296</v>
+      </c>
+      <c r="E262" t="s">
+        <v>33</v>
+      </c>
+      <c r="F262" t="s">
+        <v>8</v>
+      </c>
+      <c r="J262">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>25</v>
+      </c>
+      <c r="C263">
+        <v>5</v>
+      </c>
+      <c r="D263" t="s">
+        <v>299</v>
+      </c>
+      <c r="E263" t="s">
+        <v>33</v>
+      </c>
+      <c r="F263" t="s">
+        <v>7</v>
+      </c>
+      <c r="J263">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>25</v>
+      </c>
+      <c r="C264">
+        <v>5</v>
+      </c>
+      <c r="D264" t="s">
+        <v>298</v>
+      </c>
+      <c r="E264" t="s">
+        <v>33</v>
+      </c>
+      <c r="F264" t="s">
+        <v>7</v>
+      </c>
+      <c r="J264">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>25</v>
+      </c>
+      <c r="C265">
+        <v>6</v>
+      </c>
+      <c r="D265" t="s">
+        <v>300</v>
+      </c>
+      <c r="E265" t="s">
+        <v>33</v>
+      </c>
+      <c r="F265" t="s">
+        <v>8</v>
+      </c>
+      <c r="J265">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>25</v>
+      </c>
+      <c r="C266">
+        <v>6</v>
+      </c>
+      <c r="D266" t="s">
+        <v>301</v>
+      </c>
+      <c r="E266" t="s">
+        <v>33</v>
+      </c>
+      <c r="F266" t="s">
+        <v>7</v>
+      </c>
+      <c r="J266">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="267" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>25</v>
+      </c>
+      <c r="C267">
+        <v>6</v>
+      </c>
+      <c r="D267" t="s">
+        <v>302</v>
+      </c>
+      <c r="E267" t="s">
+        <v>33</v>
+      </c>
+      <c r="F267" t="s">
+        <v>8</v>
+      </c>
+      <c r="J267">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="268" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>25</v>
+      </c>
+      <c r="C268">
+        <v>6</v>
+      </c>
+      <c r="D268" t="s">
+        <v>303</v>
+      </c>
+      <c r="E268" t="s">
+        <v>33</v>
+      </c>
+      <c r="F268" t="s">
+        <v>7</v>
+      </c>
+      <c r="J268">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="269" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>25</v>
+      </c>
+      <c r="C269">
+        <v>6</v>
+      </c>
+      <c r="D269" t="s">
+        <v>304</v>
+      </c>
+      <c r="E269" t="s">
+        <v>33</v>
+      </c>
+      <c r="F269" t="s">
+        <v>7</v>
+      </c>
+      <c r="J269">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="270" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>25</v>
+      </c>
+      <c r="C270">
+        <v>6</v>
+      </c>
+      <c r="D270" t="s">
+        <v>305</v>
+      </c>
+      <c r="E270" t="s">
+        <v>33</v>
+      </c>
+      <c r="F270" t="s">
+        <v>7</v>
+      </c>
+      <c r="J270">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>25</v>
+      </c>
+      <c r="C271">
+        <v>7</v>
+      </c>
+      <c r="D271" t="s">
+        <v>306</v>
+      </c>
+      <c r="E271" t="s">
+        <v>33</v>
+      </c>
+      <c r="F271" t="s">
+        <v>7</v>
+      </c>
+      <c r="J271">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="272" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>25</v>
+      </c>
+      <c r="C272">
+        <v>7</v>
+      </c>
+      <c r="D272" t="s">
+        <v>307</v>
+      </c>
+      <c r="E272" t="s">
+        <v>33</v>
+      </c>
+      <c r="F272" t="s">
+        <v>7</v>
+      </c>
+      <c r="J272">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>25</v>
+      </c>
+      <c r="C273">
+        <v>7</v>
+      </c>
+      <c r="D273" t="s">
+        <v>308</v>
+      </c>
+      <c r="E273" t="s">
+        <v>33</v>
+      </c>
+      <c r="F273" t="s">
+        <v>7</v>
+      </c>
+      <c r="J273">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>25</v>
+      </c>
+      <c r="C274">
+        <v>7</v>
+      </c>
+      <c r="D274" t="s">
+        <v>309</v>
+      </c>
+      <c r="E274" t="s">
+        <v>33</v>
+      </c>
+      <c r="F274" t="s">
+        <v>7</v>
+      </c>
+      <c r="J274">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>25</v>
+      </c>
+      <c r="C275">
+        <v>7</v>
+      </c>
+      <c r="D275" t="s">
+        <v>310</v>
+      </c>
+      <c r="E275" t="s">
+        <v>33</v>
+      </c>
+      <c r="F275" t="s">
+        <v>7</v>
+      </c>
+      <c r="J275">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>25</v>
+      </c>
+      <c r="C276">
+        <v>7</v>
+      </c>
+      <c r="D276" t="s">
+        <v>311</v>
+      </c>
+      <c r="E276" t="s">
+        <v>33</v>
+      </c>
+      <c r="F276" t="s">
+        <v>7</v>
+      </c>
+      <c r="J276">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>25</v>
+      </c>
+      <c r="C277">
+        <v>7</v>
+      </c>
+      <c r="D277" t="s">
+        <v>312</v>
+      </c>
+      <c r="E277" t="s">
+        <v>33</v>
+      </c>
+      <c r="F277" t="s">
+        <v>7</v>
+      </c>
+      <c r="J277">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>25</v>
+      </c>
+      <c r="C278">
+        <v>7</v>
+      </c>
+      <c r="D278" t="s">
+        <v>313</v>
+      </c>
+      <c r="E278" t="s">
+        <v>33</v>
+      </c>
+      <c r="F278" t="s">
+        <v>7</v>
+      </c>
+      <c r="J278">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>25</v>
+      </c>
+      <c r="C279">
+        <v>7</v>
+      </c>
+      <c r="D279" t="s">
+        <v>304</v>
+      </c>
+      <c r="E279" t="s">
+        <v>33</v>
+      </c>
+      <c r="F279" t="s">
+        <v>7</v>
+      </c>
+      <c r="J279">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>25</v>
+      </c>
+      <c r="C280">
+        <v>7</v>
+      </c>
+      <c r="D280" t="s">
+        <v>314</v>
+      </c>
+      <c r="E280" t="s">
+        <v>33</v>
+      </c>
+      <c r="F280" t="s">
+        <v>7</v>
+      </c>
+      <c r="J280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>24</v>
+      </c>
+      <c r="C281">
+        <v>3</v>
+      </c>
+      <c r="D281" t="s">
+        <v>315</v>
+      </c>
+      <c r="E281" t="s">
+        <v>33</v>
+      </c>
+      <c r="F281" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>24</v>
+      </c>
+      <c r="C282">
+        <v>3</v>
+      </c>
+      <c r="D282" t="s">
+        <v>315</v>
+      </c>
+      <c r="E282" t="s">
+        <v>33</v>
+      </c>
+      <c r="F282" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>24</v>
+      </c>
+      <c r="C283">
+        <v>3</v>
+      </c>
+      <c r="D283" t="s">
+        <v>316</v>
+      </c>
+      <c r="E283" t="s">
+        <v>33</v>
+      </c>
+      <c r="F283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>24</v>
+      </c>
+      <c r="C284">
+        <v>3</v>
+      </c>
+      <c r="D284" t="s">
+        <v>317</v>
+      </c>
+      <c r="E284" t="s">
+        <v>33</v>
+      </c>
+      <c r="F284" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>24</v>
+      </c>
+      <c r="C285">
+        <v>3</v>
+      </c>
+      <c r="D285" t="s">
+        <v>318</v>
+      </c>
+      <c r="E285" t="s">
+        <v>33</v>
+      </c>
+      <c r="F285" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>24</v>
+      </c>
+      <c r="C286">
+        <v>3</v>
+      </c>
+      <c r="D286" t="s">
+        <v>319</v>
+      </c>
+      <c r="E286" t="s">
+        <v>33</v>
+      </c>
+      <c r="F286" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>24</v>
+      </c>
+      <c r="C287">
+        <v>3</v>
+      </c>
+      <c r="D287" t="s">
+        <v>320</v>
+      </c>
+      <c r="E287" t="s">
+        <v>33</v>
+      </c>
+      <c r="F287" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>24</v>
+      </c>
+      <c r="C288">
+        <v>3</v>
+      </c>
+      <c r="D288" t="s">
+        <v>321</v>
+      </c>
+      <c r="E288" t="s">
+        <v>33</v>
+      </c>
+      <c r="F288" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>24</v>
+      </c>
+      <c r="C289">
+        <v>4</v>
+      </c>
+      <c r="D289" t="s">
+        <v>322</v>
+      </c>
+      <c r="E289" t="s">
+        <v>33</v>
+      </c>
+      <c r="F289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>24</v>
+      </c>
+      <c r="C290">
+        <v>4</v>
+      </c>
+      <c r="D290" t="s">
+        <v>323</v>
+      </c>
+      <c r="E290" t="s">
+        <v>33</v>
+      </c>
+      <c r="F290" t="s">
+        <v>8</v>
+      </c>
+      <c r="G290" s="2">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>24</v>
+      </c>
+      <c r="C291">
+        <v>4</v>
+      </c>
+      <c r="D291" t="s">
+        <v>324</v>
+      </c>
+      <c r="E291" t="s">
+        <v>33</v>
+      </c>
+      <c r="F291" t="s">
+        <v>8</v>
+      </c>
+      <c r="G291" s="2">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>24</v>
+      </c>
+      <c r="C292">
+        <v>4</v>
+      </c>
+      <c r="D292" t="s">
+        <v>324</v>
+      </c>
+      <c r="E292" t="s">
+        <v>33</v>
+      </c>
+      <c r="F292" t="s">
+        <v>8</v>
+      </c>
+      <c r="G292" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>24</v>
+      </c>
+      <c r="C293">
+        <v>4</v>
+      </c>
+      <c r="D293" t="s">
+        <v>324</v>
+      </c>
+      <c r="E293" t="s">
+        <v>33</v>
+      </c>
+      <c r="F293" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" alignment="center"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -618,10 +7931,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56DA5670-41BD-4816-8DF5-A7C6DF91BCB5}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +7955,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -739,6 +8052,11 @@
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Freezer_Database.xlsx
+++ b/Freezer_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univr-my.sharepoint.com/personal/filippo_lucchini_univr_it/Documents/Progetto Freezer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{8E9AEE6C-E15B-6B49-8ACE-8ABC20802EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6FD5D7C-662C-409C-A61E-0CFAE837F0CF}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{8E9AEE6C-E15B-6B49-8ACE-8ABC20802EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86921D59-5356-439D-9D6F-86F4F8BDF80C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CD75289-4961-452B-AFA6-E2C514327AF8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="327">
   <si>
     <t>Freezer Name</t>
   </si>
@@ -345,9 +345,6 @@
     <t>M146-M172/M183-M236</t>
   </si>
   <si>
-    <t xml:space="preserve">Meyer </t>
-  </si>
-  <si>
     <t xml:space="preserve">WES Verona </t>
   </si>
   <si>
@@ -360,12 +357,6 @@
     <t>A341-A373/A385-A432</t>
   </si>
   <si>
-    <t>Esomi Verona</t>
-  </si>
-  <si>
-    <t>Gen46_Burlo</t>
-  </si>
-  <si>
     <t>X1851-X2109</t>
   </si>
   <si>
@@ -429,18 +420,12 @@
     <t>A524-A539</t>
   </si>
   <si>
-    <t>Esomi</t>
-  </si>
-  <si>
     <t>Luglio-settembre 2023</t>
   </si>
   <si>
     <t>X2110-X2279</t>
   </si>
   <si>
-    <t>Artuso</t>
-  </si>
-  <si>
     <t>Gennaio-febbraio 2024</t>
   </si>
   <si>
@@ -516,9 +501,6 @@
     <t>M1978-M2025/M2040-M2091</t>
   </si>
   <si>
-    <t>Esoma Verona</t>
-  </si>
-  <si>
     <t>5054-5146</t>
   </si>
   <si>
@@ -585,21 +567,12 @@
     <t xml:space="preserve"> /M2040-M2088</t>
   </si>
   <si>
-    <t>Gen50 Ab analitica</t>
-  </si>
-  <si>
     <t>CGF346</t>
   </si>
   <si>
     <t>CGF363_Giglio</t>
   </si>
   <si>
-    <t>Gen50 WES SIGU</t>
-  </si>
-  <si>
-    <t>Ab analitica WES inserto lungo</t>
-  </si>
-  <si>
     <t>Catt.812/catt.925</t>
   </si>
   <si>
@@ -624,18 +597,9 @@
     <t>639-782</t>
   </si>
   <si>
-    <t>Gen46_Burlo WGS</t>
-  </si>
-  <si>
-    <t>Gen46_Burlo WES</t>
-  </si>
-  <si>
     <t>X1932-X2100</t>
   </si>
   <si>
-    <t>Gen46 WES</t>
-  </si>
-  <si>
     <t xml:space="preserve">Settembre/novembre 2023 </t>
   </si>
   <si>
@@ -669,63 +633,24 @@
     <t xml:space="preserve">Beretta </t>
   </si>
   <si>
-    <t>Wadenswill</t>
-  </si>
-  <si>
-    <t>Gen04_miRNA_Bianchi</t>
-  </si>
-  <si>
-    <t>Gen16_sgRNA</t>
-  </si>
-  <si>
     <t>CGF340_Beretta</t>
   </si>
   <si>
     <t>miRNA Cabrini</t>
   </si>
   <si>
-    <t>Gen56_Dalmonte_miRNA</t>
-  </si>
-  <si>
     <t>CGF336_Colantuoni</t>
   </si>
   <si>
-    <t>Gen07_Licitra/Gen08_Citrus</t>
-  </si>
-  <si>
-    <t>Gen12_Pilotti</t>
-  </si>
-  <si>
-    <t>Gen26_Balestrini/Gen33_Silos/Gen34_Marchese</t>
-  </si>
-  <si>
     <t>Indici miRNA</t>
   </si>
   <si>
     <t>CGF344_prove allungamento inserto</t>
   </si>
   <si>
-    <t>Gen29_Landsbergher/Gen30_Botta/Ger32_Finitti miRNA</t>
-  </si>
-  <si>
-    <t>Gen28/Gen36/Gen38</t>
-  </si>
-  <si>
-    <t>Gen01_Lupinus digitatus</t>
-  </si>
-  <si>
     <t>Terzi</t>
   </si>
   <si>
-    <t>Gen27_Busatto</t>
-  </si>
-  <si>
-    <t>Gen08_Invio2022/Gen18_Galattero/CGF310_Vermi</t>
-  </si>
-  <si>
-    <t>CGF283_Nestera</t>
-  </si>
-  <si>
     <t>CGF314_GeniAti</t>
   </si>
   <si>
@@ -744,9 +669,6 @@
     <t>WGS vari_CDE</t>
   </si>
   <si>
-    <t>Prove frammentazione Covaries CDE</t>
-  </si>
-  <si>
     <t>Clorella Balottari/CGF354_Brassica</t>
   </si>
   <si>
@@ -765,21 +687,12 @@
     <t>Campioni Marta  x Twist</t>
   </si>
   <si>
-    <t>Campioni DNA finger Miller</t>
-  </si>
-  <si>
     <t>Long fragment ApoE_Tonn_40</t>
   </si>
   <si>
     <t>DNAbox_16</t>
   </si>
   <si>
-    <t>Gen02_ cDNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gen02_Negrar </t>
-  </si>
-  <si>
     <t>CGF301_Negrar</t>
   </si>
   <si>
@@ -810,12 +723,6 @@
     <t>DNAbox_15</t>
   </si>
   <si>
-    <t>Gen_06</t>
-  </si>
-  <si>
-    <t>Gen_05_Badolato</t>
-  </si>
-  <si>
     <t>Campioni saliva stock</t>
   </si>
   <si>
@@ -837,36 +744,12 @@
     <t>Vermi/intatch</t>
   </si>
   <si>
-    <t>Gen52_cDNA</t>
-  </si>
-  <si>
-    <t>Gen60_cDNA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Finotti ampliconi </t>
   </si>
   <si>
-    <t>Gen59_cDNA</t>
-  </si>
-  <si>
-    <t>Gen56_diluizioni</t>
-  </si>
-  <si>
     <t>Kit RNA vari</t>
   </si>
   <si>
-    <t xml:space="preserve">Vaiolin primer+prove </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vaiolin  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gen06_Nanni Swift </t>
-  </si>
-  <si>
-    <t>Kit twist Marta</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vecchi kit ONT </t>
   </si>
   <si>
@@ -921,15 +804,9 @@
     <t>CGF320_Pvulgaris 2023</t>
   </si>
   <si>
-    <t>CGF320_Pollgenomi 2022</t>
-  </si>
-  <si>
     <t>CGF285_Fagiolo moderno/ChlorellaUK</t>
   </si>
   <si>
-    <t>CGF321-Tilling</t>
-  </si>
-  <si>
     <t xml:space="preserve">CGF301_Campioni reali </t>
   </si>
   <si>
@@ -948,60 +825,6 @@
     <t>CGF158_Lenticchia</t>
   </si>
   <si>
-    <t>Bormio 2012</t>
-  </si>
-  <si>
-    <t>Bormio 2018</t>
-  </si>
-  <si>
-    <t>Bormio 2022</t>
-  </si>
-  <si>
-    <t>Georgia 2023</t>
-  </si>
-  <si>
-    <t>Brunei 2018</t>
-  </si>
-  <si>
-    <t>Amsterdam 2019</t>
-  </si>
-  <si>
-    <t>Sud Africa 2015</t>
-  </si>
-  <si>
-    <t>Montenegro 2019</t>
-  </si>
-  <si>
-    <t>Bormio 2023</t>
-  </si>
-  <si>
-    <t>Montenegro 2023</t>
-  </si>
-  <si>
-    <t>Toscana 2022</t>
-  </si>
-  <si>
-    <t>Mongolico 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGF345 genomica personalizzata </t>
-  </si>
-  <si>
-    <t>Comparazione kit_seqwell_mosaix</t>
-  </si>
-  <si>
-    <t>Comparazione kit_seqwell_articolo intervalli inserto</t>
-  </si>
-  <si>
-    <t>Comparazione kit_seqwell_element bioscience</t>
-  </si>
-  <si>
-    <t>Comparazione kit_seqwell_flex prep</t>
-  </si>
-  <si>
-    <t>Gen69_Bascirotto_WES</t>
-  </si>
-  <si>
     <t>GEN63_Sinisa</t>
   </si>
   <si>
@@ -1014,9 +837,6 @@
     <t>CGS326_Parrini WES</t>
   </si>
   <si>
-    <t xml:space="preserve"> Settembre 2025</t>
-  </si>
-  <si>
     <t xml:space="preserve">CGF330_1MILION </t>
   </si>
   <si>
@@ -1036,6 +856,168 @@
   </si>
   <si>
     <t>CGF309_Borello_PostPippin</t>
+  </si>
+  <si>
+    <t>CGF321_Tilling</t>
+  </si>
+  <si>
+    <t>GEN69_Bascirotto_WES</t>
+  </si>
+  <si>
+    <t>Comparazione kit_FlexPrep</t>
+  </si>
+  <si>
+    <t>Comparazione kit_ElementBioscience</t>
+  </si>
+  <si>
+    <t>Comparazione kit_Articolo intervalli inserto</t>
+  </si>
+  <si>
+    <t>Comparazione kit_seqWell_Mosaix</t>
+  </si>
+  <si>
+    <t>CGF345_GenomicaPersonalizzata</t>
+  </si>
+  <si>
+    <t>Taxon_Borneo 2012</t>
+  </si>
+  <si>
+    <t>Taxon_Borneo 2018</t>
+  </si>
+  <si>
+    <t>Taxon_Borneo 2022</t>
+  </si>
+  <si>
+    <t>Taxon_Georgia 2023</t>
+  </si>
+  <si>
+    <t>Taxon_Amsterdam 2019</t>
+  </si>
+  <si>
+    <t>Taxon_Sud Africa 2015</t>
+  </si>
+  <si>
+    <t>Taxon_Montenegro 2019</t>
+  </si>
+  <si>
+    <t>Taxon_Borneo 2023</t>
+  </si>
+  <si>
+    <t>Taxon_Montenegro 2023</t>
+  </si>
+  <si>
+    <t>Taxon_Toscana 2022</t>
+  </si>
+  <si>
+    <t>Taxon_Mongolia 2022</t>
+  </si>
+  <si>
+    <t>CGF320_Pool_Genomi 2022</t>
+  </si>
+  <si>
+    <t>Kit Twist Marta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEN06_Nanni Swift </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEN06__Nanni Swift </t>
+  </si>
+  <si>
+    <t>Violin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Violin primer+prove </t>
+  </si>
+  <si>
+    <t>GEN56_diluizioni</t>
+  </si>
+  <si>
+    <t>GEN59_cDNA</t>
+  </si>
+  <si>
+    <t>GEN60_cDNA</t>
+  </si>
+  <si>
+    <t>GEN52_cDNA</t>
+  </si>
+  <si>
+    <t>GEN05_Badolato</t>
+  </si>
+  <si>
+    <t>GEN_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GEN02_Negrar </t>
+  </si>
+  <si>
+    <t>GEN02_ cDNA</t>
+  </si>
+  <si>
+    <t>GEN08_Invio2022/GEN18_Galatolo/CGF310_Vermi</t>
+  </si>
+  <si>
+    <t>CGF283_Nextera</t>
+  </si>
+  <si>
+    <t>Prove frammentazione Covaris CDE</t>
+  </si>
+  <si>
+    <t>Campioni DNA finger Millet</t>
+  </si>
+  <si>
+    <t>GEN27_Busatto</t>
+  </si>
+  <si>
+    <t>GEN01_Lupinus digitatus</t>
+  </si>
+  <si>
+    <t>GEN28/GEN36/GEN38</t>
+  </si>
+  <si>
+    <t>GEN29_Landsberger/GEN30_Botta/GEN32_Finotti miRNA</t>
+  </si>
+  <si>
+    <t>GEN26_Balestrini/GEN33_Sillo/GEN34_Marchese</t>
+  </si>
+  <si>
+    <t>GEN12_Pilotti</t>
+  </si>
+  <si>
+    <t>GEN07_Licitra/GEN08_Citrus</t>
+  </si>
+  <si>
+    <t>GEN56_Dalmonte_miRNA</t>
+  </si>
+  <si>
+    <t>GEN16_sgRNA</t>
+  </si>
+  <si>
+    <t>GEN04_miRNA_Bianchi</t>
+  </si>
+  <si>
+    <t>Wadenswil</t>
+  </si>
+  <si>
+    <t>GEN46_Burlo</t>
+  </si>
+  <si>
+    <t>GEN46_Burlo WES</t>
+  </si>
+  <si>
+    <t>GEN46 WES</t>
+  </si>
+  <si>
+    <t>GEN46_Burlo WGS</t>
+  </si>
+  <si>
+    <t>GEN50_AB_Analitica WES inserto lungo</t>
+  </si>
+  <si>
+    <t>GEN50_AB_Analitica WES SIGU</t>
+  </si>
+  <si>
+    <t>GEN50_AB_Analitica</t>
   </si>
 </sst>
 </file>
@@ -1085,13 +1067,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1429,8 +1412,8 @@
   <dimension ref="A1:J293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I263" sqref="I263"/>
+      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I293" sqref="I293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,7 +1421,7 @@
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="35.7109375" customWidth="1"/>
@@ -2516,7 +2499,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="E43" t="s">
         <v>33</v>
@@ -2568,7 +2551,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="E45" t="s">
         <v>33</v>
@@ -2591,19 +2574,19 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" t="s">
         <v>103</v>
-      </c>
-      <c r="E46" t="s">
-        <v>33</v>
-      </c>
-      <c r="F46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" t="s">
-        <v>104</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -2626,10 +2609,10 @@
         <v>7</v>
       </c>
       <c r="G47" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" t="s">
         <v>105</v>
-      </c>
-      <c r="H47" t="s">
-        <v>106</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -2669,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="E49" t="s">
         <v>33</v>
@@ -2692,7 +2675,7 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="E50" t="s">
         <v>33</v>
@@ -2704,7 +2687,7 @@
         <v>45078</v>
       </c>
       <c r="H50" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J50">
         <v>3</v>
@@ -2718,7 +2701,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
         <v>33</v>
@@ -2727,10 +2710,10 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H51" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J51">
         <v>3</v>
@@ -2756,7 +2739,7 @@
         <v>45047</v>
       </c>
       <c r="H52" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -2770,7 +2753,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="E53" t="s">
         <v>33</v>
@@ -2779,10 +2762,10 @@
         <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H53" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J53">
         <v>3</v>
@@ -2808,7 +2791,7 @@
         <v>44652</v>
       </c>
       <c r="H54" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J54">
         <v>3</v>
@@ -2831,10 +2814,10 @@
         <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H55" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J55">
         <v>3</v>
@@ -2860,7 +2843,7 @@
         <v>44986</v>
       </c>
       <c r="H56" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -2886,7 +2869,7 @@
         <v>2018</v>
       </c>
       <c r="H57" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -2909,10 +2892,10 @@
         <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H58" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J58">
         <v>3</v>
@@ -2938,7 +2921,7 @@
         <v>44470</v>
       </c>
       <c r="H59" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J59">
         <v>3</v>
@@ -2952,7 +2935,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
         <v>33</v>
@@ -2964,7 +2947,7 @@
         <v>81</v>
       </c>
       <c r="H60" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J60">
         <v>3</v>
@@ -2990,7 +2973,7 @@
         <v>44621</v>
       </c>
       <c r="H61" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J61">
         <v>3</v>
@@ -3004,7 +2987,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="E62" t="s">
         <v>33</v>
@@ -3016,7 +2999,7 @@
         <v>45108</v>
       </c>
       <c r="H62" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J62">
         <v>3</v>
@@ -3039,10 +3022,10 @@
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H63" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J63">
         <v>3</v>
@@ -3068,7 +3051,7 @@
         <v>44896</v>
       </c>
       <c r="H64" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J64">
         <v>3</v>
@@ -3082,7 +3065,7 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="E65" t="s">
         <v>33</v>
@@ -3105,7 +3088,7 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="E66" t="s">
         <v>33</v>
@@ -3114,10 +3097,10 @@
         <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H66" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J66">
         <v>3</v>
@@ -3131,7 +3114,7 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="E67" t="s">
         <v>33</v>
@@ -3140,10 +3123,10 @@
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H67" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J67">
         <v>3</v>
@@ -3192,7 +3175,7 @@
         <v>44743</v>
       </c>
       <c r="H69" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="J69">
         <v>3</v>
@@ -3215,10 +3198,10 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="H70" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -3241,10 +3224,10 @@
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H71" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J71">
         <v>3</v>
@@ -3258,7 +3241,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E72" t="s">
         <v>33</v>
@@ -3270,7 +3253,7 @@
         <v>45170</v>
       </c>
       <c r="H72" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="J72">
         <v>3</v>
@@ -3293,10 +3276,10 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H73" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="J73">
         <v>3</v>
@@ -3310,7 +3293,7 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E74" t="s">
         <v>33</v>
@@ -3342,10 +3325,10 @@
         <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H75" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J75">
         <v>3</v>
@@ -3368,10 +3351,10 @@
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="H76" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -3394,10 +3377,10 @@
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H77" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J77">
         <v>3</v>
@@ -3411,7 +3394,7 @@
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E78" t="s">
         <v>33</v>
@@ -3443,10 +3426,10 @@
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="H79" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="J79">
         <v>3</v>
@@ -3460,7 +3443,7 @@
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="E80" t="s">
         <v>33</v>
@@ -3480,7 +3463,7 @@
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E81" t="s">
         <v>33</v>
@@ -3489,10 +3472,10 @@
         <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H81" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="J81">
         <v>3</v>
@@ -3506,7 +3489,7 @@
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E82" t="s">
         <v>33</v>
@@ -3538,10 +3521,10 @@
         <v>7</v>
       </c>
       <c r="G83" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H83" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="J83">
         <v>3</v>
@@ -3555,7 +3538,7 @@
         <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E84" t="s">
         <v>33</v>
@@ -3564,10 +3547,10 @@
         <v>7</v>
       </c>
       <c r="G84" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="H84" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -3581,7 +3564,7 @@
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E85" t="s">
         <v>33</v>
@@ -3593,7 +3576,7 @@
         <v>44440</v>
       </c>
       <c r="H85" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J85">
         <v>3</v>
@@ -3619,7 +3602,7 @@
         <v>44531</v>
       </c>
       <c r="H86" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -3633,7 +3616,7 @@
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E87" t="s">
         <v>33</v>
@@ -3656,7 +3639,7 @@
         <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E88" t="s">
         <v>33</v>
@@ -3688,10 +3671,10 @@
         <v>7</v>
       </c>
       <c r="G89" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H89" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J89">
         <v>3</v>
@@ -3705,7 +3688,7 @@
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="E90" t="s">
         <v>33</v>
@@ -3717,7 +3700,7 @@
         <v>45292</v>
       </c>
       <c r="H90" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J90">
         <v>3</v>
@@ -3740,10 +3723,10 @@
         <v>7</v>
       </c>
       <c r="G91" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H91" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J91">
         <v>3</v>
@@ -3757,7 +3740,7 @@
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E92" t="s">
         <v>33</v>
@@ -3780,16 +3763,16 @@
         <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F93" t="s">
         <v>7</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H93" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J93">
         <v>3</v>
@@ -3815,7 +3798,7 @@
         <v>45413</v>
       </c>
       <c r="H94" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="J94">
         <v>3</v>
@@ -3829,7 +3812,7 @@
         <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E95" t="s">
         <v>33</v>
@@ -3838,7 +3821,7 @@
         <v>7</v>
       </c>
       <c r="G95" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -3852,7 +3835,7 @@
         <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E96" t="s">
         <v>33</v>
@@ -3875,7 +3858,7 @@
         <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E97" t="s">
         <v>33</v>
@@ -3898,7 +3881,7 @@
         <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E98" t="s">
         <v>33</v>
@@ -3907,10 +3890,10 @@
         <v>7</v>
       </c>
       <c r="G98" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H98" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J98">
         <v>3</v>
@@ -3924,7 +3907,7 @@
         <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E99" t="s">
         <v>33</v>
@@ -3933,10 +3916,10 @@
         <v>7</v>
       </c>
       <c r="G99" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H99" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -3950,7 +3933,7 @@
         <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E100" t="s">
         <v>33</v>
@@ -3959,10 +3942,10 @@
         <v>8</v>
       </c>
       <c r="G100" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H100" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I100" s="2">
         <v>46054</v>
@@ -3991,7 +3974,7 @@
         <v>33</v>
       </c>
       <c r="H101" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -4005,7 +3988,7 @@
         <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E102" t="s">
         <v>33</v>
@@ -4017,7 +4000,7 @@
         <v>45778</v>
       </c>
       <c r="H102" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="I102" s="2">
         <v>46143</v>
@@ -4034,7 +4017,7 @@
         <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E103" t="s">
         <v>33</v>
@@ -4043,10 +4026,10 @@
         <v>8</v>
       </c>
       <c r="G103" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H103" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I103" s="2">
         <v>46113</v>
@@ -4063,7 +4046,7 @@
         <v>5</v>
       </c>
       <c r="D104" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E104" t="s">
         <v>33</v>
@@ -4098,10 +4081,10 @@
         <v>8</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H105" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I105" s="2">
         <v>46023</v>
@@ -4118,7 +4101,7 @@
         <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>182</v>
+        <v>326</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -4138,7 +4121,7 @@
         <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="E107" t="s">
         <v>33</v>
@@ -4147,7 +4130,7 @@
         <v>7</v>
       </c>
       <c r="G107" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="J107">
         <v>3</v>
@@ -4161,7 +4144,7 @@
         <v>6</v>
       </c>
       <c r="D108" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E108" t="s">
         <v>33</v>
@@ -4187,7 +4170,7 @@
         <v>6</v>
       </c>
       <c r="D109" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E109" t="s">
         <v>33</v>
@@ -4207,7 +4190,7 @@
         <v>6</v>
       </c>
       <c r="D110" t="s">
-        <v>185</v>
+        <v>325</v>
       </c>
       <c r="E110" t="s">
         <v>33</v>
@@ -4227,7 +4210,7 @@
         <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>186</v>
+        <v>324</v>
       </c>
       <c r="E111" t="s">
         <v>33</v>
@@ -4256,7 +4239,7 @@
         <v>9</v>
       </c>
       <c r="H112" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="I112" s="2">
         <v>45992</v>
@@ -4273,7 +4256,7 @@
         <v>6</v>
       </c>
       <c r="D113" t="s">
-        <v>326</v>
+        <v>266</v>
       </c>
       <c r="E113" t="s">
         <v>33</v>
@@ -4293,7 +4276,7 @@
         <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E114" t="s">
         <v>33</v>
@@ -4313,7 +4296,7 @@
         <v>6</v>
       </c>
       <c r="D115" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E115" t="s">
         <v>33</v>
@@ -4333,7 +4316,7 @@
         <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E116" t="s">
         <v>33</v>
@@ -4353,7 +4336,7 @@
         <v>6</v>
       </c>
       <c r="D117" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E117" t="s">
         <v>33</v>
@@ -4376,7 +4359,7 @@
         <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E118" t="s">
         <v>33</v>
@@ -4399,7 +4382,7 @@
         <v>6</v>
       </c>
       <c r="D119" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E119" t="s">
         <v>33</v>
@@ -4422,7 +4405,7 @@
         <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>195</v>
+        <v>323</v>
       </c>
       <c r="E120" t="s">
         <v>33</v>
@@ -4442,7 +4425,7 @@
         <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>196</v>
+        <v>321</v>
       </c>
       <c r="E121" t="s">
         <v>33</v>
@@ -4451,7 +4434,7 @@
         <v>9</v>
       </c>
       <c r="H121" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -4465,7 +4448,7 @@
         <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>196</v>
+        <v>321</v>
       </c>
       <c r="E122" t="s">
         <v>33</v>
@@ -4477,7 +4460,7 @@
         <v>45292</v>
       </c>
       <c r="H122" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -4491,7 +4474,7 @@
         <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>196</v>
+        <v>321</v>
       </c>
       <c r="E123" t="s">
         <v>33</v>
@@ -4500,7 +4483,7 @@
         <v>8</v>
       </c>
       <c r="H123" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -4514,7 +4497,7 @@
         <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>198</v>
+        <v>322</v>
       </c>
       <c r="E124" t="s">
         <v>33</v>
@@ -4523,10 +4506,10 @@
         <v>8</v>
       </c>
       <c r="G124" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="H124" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="J124">
         <v>3</v>
@@ -4540,7 +4523,7 @@
         <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>196</v>
+        <v>321</v>
       </c>
       <c r="E125" t="s">
         <v>33</v>
@@ -4549,7 +4532,7 @@
         <v>8</v>
       </c>
       <c r="H125" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="J125">
         <v>3</v>
@@ -4563,7 +4546,7 @@
         <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>108</v>
+        <v>320</v>
       </c>
       <c r="E126" t="s">
         <v>33</v>
@@ -4572,10 +4555,10 @@
         <v>8</v>
       </c>
       <c r="G126" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="H126" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="J126">
         <v>3</v>
@@ -4612,7 +4595,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>327</v>
+        <v>267</v>
       </c>
       <c r="E128" t="s">
         <v>33</v>
@@ -4632,7 +4615,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E129" t="s">
         <v>33</v>
@@ -4641,7 +4624,7 @@
         <v>8</v>
       </c>
       <c r="H129" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="J129">
         <v>2</v>
@@ -4655,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>328</v>
+        <v>268</v>
       </c>
       <c r="E130" t="s">
         <v>33</v>
@@ -4675,7 +4658,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="E131" t="s">
         <v>33</v>
@@ -4695,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="E132" t="s">
         <v>33</v>
@@ -4715,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="E133" t="s">
         <v>33</v>
@@ -4735,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E134" t="s">
         <v>33</v>
@@ -4755,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>210</v>
+        <v>319</v>
       </c>
       <c r="E135" t="s">
         <v>33</v>
@@ -4775,7 +4758,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>211</v>
+        <v>318</v>
       </c>
       <c r="E136" t="s">
         <v>33</v>
@@ -4795,7 +4778,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>212</v>
+        <v>317</v>
       </c>
       <c r="E137" t="s">
         <v>33</v>
@@ -4815,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E138" t="s">
         <v>33</v>
@@ -4835,7 +4818,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>329</v>
+        <v>269</v>
       </c>
       <c r="E139" t="s">
         <v>33</v>
@@ -4855,7 +4838,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>331</v>
+        <v>271</v>
       </c>
       <c r="E140" t="s">
         <v>33</v>
@@ -4875,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="E141" t="s">
         <v>33</v>
@@ -4895,7 +4878,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="E142" t="s">
         <v>33</v>
@@ -4915,7 +4898,7 @@
         <v>2</v>
       </c>
       <c r="D143" t="s">
-        <v>215</v>
+        <v>316</v>
       </c>
       <c r="E143" t="s">
         <v>33</v>
@@ -4935,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="D144" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E144" t="s">
         <v>33</v>
@@ -4955,7 +4938,7 @@
         <v>2</v>
       </c>
       <c r="D145" t="s">
-        <v>217</v>
+        <v>315</v>
       </c>
       <c r="E145" t="s">
         <v>33</v>
@@ -4975,7 +4958,7 @@
         <v>2</v>
       </c>
       <c r="D146" t="s">
-        <v>218</v>
+        <v>314</v>
       </c>
       <c r="E146" t="s">
         <v>33</v>
@@ -4995,7 +4978,7 @@
         <v>2</v>
       </c>
       <c r="D147" t="s">
-        <v>219</v>
+        <v>313</v>
       </c>
       <c r="E147" t="s">
         <v>33</v>
@@ -5015,7 +4998,7 @@
         <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="E148" t="s">
         <v>33</v>
@@ -5035,7 +5018,7 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="E149" t="s">
         <v>33</v>
@@ -5055,7 +5038,7 @@
         <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="E150" t="s">
         <v>33</v>
@@ -5075,7 +5058,7 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>223</v>
+        <v>311</v>
       </c>
       <c r="E151" t="s">
         <v>33</v>
@@ -5095,7 +5078,7 @@
         <v>2</v>
       </c>
       <c r="D152" t="s">
-        <v>224</v>
+        <v>310</v>
       </c>
       <c r="E152" t="s">
         <v>33</v>
@@ -5115,7 +5098,7 @@
         <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="E153" t="s">
         <v>33</v>
@@ -5135,7 +5118,7 @@
         <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>226</v>
+        <v>309</v>
       </c>
       <c r="E154" t="s">
         <v>33</v>
@@ -5155,7 +5138,7 @@
         <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="E155" t="s">
         <v>33</v>
@@ -5175,7 +5158,7 @@
         <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="E156" t="s">
         <v>33</v>
@@ -5195,7 +5178,7 @@
         <v>3</v>
       </c>
       <c r="D157" t="s">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -5215,7 +5198,7 @@
         <v>3</v>
       </c>
       <c r="D158" t="s">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="E158">
         <v>2</v>
@@ -5235,7 +5218,7 @@
         <v>3</v>
       </c>
       <c r="D159" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="E159" t="s">
         <v>33</v>
@@ -5261,7 +5244,7 @@
         <v>7</v>
       </c>
       <c r="H160" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="J160">
         <v>2</v>
@@ -5275,7 +5258,7 @@
         <v>3</v>
       </c>
       <c r="D161" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="E161" t="s">
         <v>33</v>
@@ -5298,7 +5281,7 @@
         <v>3</v>
       </c>
       <c r="D162" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="E162" t="s">
         <v>33</v>
@@ -5307,7 +5290,7 @@
         <v>7</v>
       </c>
       <c r="H162" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="J162">
         <v>2</v>
@@ -5321,7 +5304,7 @@
         <v>3</v>
       </c>
       <c r="D163" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="E163" t="s">
         <v>33</v>
@@ -5341,7 +5324,7 @@
         <v>3</v>
       </c>
       <c r="D164" t="s">
-        <v>235</v>
+        <v>307</v>
       </c>
       <c r="E164" t="s">
         <v>33</v>
@@ -5361,7 +5344,7 @@
         <v>3</v>
       </c>
       <c r="D165" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="E165" t="s">
         <v>33</v>
@@ -5381,7 +5364,7 @@
         <v>3</v>
       </c>
       <c r="D166" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="E166" t="s">
         <v>33</v>
@@ -5401,7 +5384,7 @@
         <v>3</v>
       </c>
       <c r="D167" t="s">
-        <v>242</v>
+        <v>308</v>
       </c>
       <c r="E167" t="s">
         <v>33</v>
@@ -5421,7 +5404,7 @@
         <v>3</v>
       </c>
       <c r="D168" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="E168" t="s">
         <v>33</v>
@@ -5441,7 +5424,7 @@
         <v>3</v>
       </c>
       <c r="D169" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="E169" t="s">
         <v>33</v>
@@ -5461,7 +5444,7 @@
         <v>3</v>
       </c>
       <c r="D170" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="E170" t="s">
         <v>33</v>
@@ -5481,7 +5464,7 @@
         <v>3</v>
       </c>
       <c r="D171" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="E171" t="s">
         <v>33</v>
@@ -5498,7 +5481,7 @@
         <v>25</v>
       </c>
       <c r="D172" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="E172" t="s">
         <v>33</v>
@@ -5512,7 +5495,7 @@
         <v>25</v>
       </c>
       <c r="D173" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="E173" t="s">
         <v>33</v>
@@ -5532,7 +5515,7 @@
         <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="E174" t="s">
         <v>33</v>
@@ -5549,7 +5532,7 @@
         <v>5</v>
       </c>
       <c r="D175" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="E175" t="s">
         <v>33</v>
@@ -5566,7 +5549,7 @@
         <v>5</v>
       </c>
       <c r="D176" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="E176" t="s">
         <v>33</v>
@@ -5586,7 +5569,7 @@
         <v>5</v>
       </c>
       <c r="D177" t="s">
-        <v>245</v>
+        <v>304</v>
       </c>
       <c r="E177" t="s">
         <v>33</v>
@@ -5606,7 +5589,7 @@
         <v>5</v>
       </c>
       <c r="D178" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="E178" t="s">
         <v>33</v>
@@ -5626,7 +5609,7 @@
         <v>5</v>
       </c>
       <c r="D179" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -5646,7 +5629,7 @@
         <v>5</v>
       </c>
       <c r="D180" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="E180">
         <v>2</v>
@@ -5666,7 +5649,7 @@
         <v>5</v>
       </c>
       <c r="D181" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="E181">
         <v>3</v>
@@ -5686,7 +5669,7 @@
         <v>5</v>
       </c>
       <c r="D182" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="E182">
         <v>4</v>
@@ -5706,7 +5689,7 @@
         <v>5</v>
       </c>
       <c r="D183" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="E183">
         <v>5</v>
@@ -5726,7 +5709,7 @@
         <v>5</v>
       </c>
       <c r="D184" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="E184">
         <v>6</v>
@@ -5746,7 +5729,7 @@
         <v>5</v>
       </c>
       <c r="D185" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="E185" t="s">
         <v>33</v>
@@ -5766,7 +5749,7 @@
         <v>5</v>
       </c>
       <c r="D186" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="E186" t="s">
         <v>33</v>
@@ -5786,7 +5769,7 @@
         <v>5</v>
       </c>
       <c r="D187" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="E187" t="s">
         <v>33</v>
@@ -5806,7 +5789,7 @@
         <v>5</v>
       </c>
       <c r="D188" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="E188" t="s">
         <v>33</v>
@@ -5826,7 +5809,7 @@
         <v>5</v>
       </c>
       <c r="D189" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="E189" t="s">
         <v>33</v>
@@ -5846,7 +5829,7 @@
         <v>5</v>
       </c>
       <c r="D190" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="E190" t="s">
         <v>33</v>
@@ -5863,7 +5846,7 @@
         <v>5</v>
       </c>
       <c r="D191" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="E191" t="s">
         <v>33</v>
@@ -5883,7 +5866,7 @@
         <v>5</v>
       </c>
       <c r="D192" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="E192" t="s">
         <v>33</v>
@@ -5903,7 +5886,7 @@
         <v>5</v>
       </c>
       <c r="D193" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="E193" t="s">
         <v>33</v>
@@ -5922,8 +5905,8 @@
       <c r="C194">
         <v>5</v>
       </c>
-      <c r="D194" s="2" t="s">
-        <v>257</v>
+      <c r="D194" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="E194" t="s">
         <v>33</v>
@@ -5943,7 +5926,7 @@
         <v>5</v>
       </c>
       <c r="D195" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="E195" t="s">
         <v>33</v>
@@ -5963,7 +5946,7 @@
         <v>5</v>
       </c>
       <c r="D196" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="E196" t="s">
         <v>33</v>
@@ -5983,7 +5966,7 @@
         <v>6</v>
       </c>
       <c r="D197" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="E197" t="s">
         <v>33</v>
@@ -6003,7 +5986,7 @@
         <v>6</v>
       </c>
       <c r="D198" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="E198" t="s">
         <v>33</v>
@@ -6023,7 +6006,7 @@
         <v>6</v>
       </c>
       <c r="D199" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="E199" t="s">
         <v>33</v>
@@ -6046,7 +6029,7 @@
         <v>6</v>
       </c>
       <c r="D200" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="E200" t="s">
         <v>33</v>
@@ -6066,7 +6049,7 @@
         <v>6</v>
       </c>
       <c r="D201" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="E201" t="s">
         <v>33</v>
@@ -6086,7 +6069,7 @@
         <v>6</v>
       </c>
       <c r="D202" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="E202" t="s">
         <v>33</v>
@@ -6103,7 +6086,7 @@
         <v>6</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="E203" t="s">
         <v>33</v>
@@ -6123,7 +6106,7 @@
         <v>6</v>
       </c>
       <c r="D204" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
       <c r="E204" t="s">
         <v>33</v>
@@ -6143,7 +6126,7 @@
         <v>6</v>
       </c>
       <c r="D205" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="E205" t="s">
         <v>33</v>
@@ -6163,7 +6146,7 @@
         <v>6</v>
       </c>
       <c r="D206" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="E206" t="s">
         <v>33</v>
@@ -6183,7 +6166,7 @@
         <v>6</v>
       </c>
       <c r="D207" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="E207" t="s">
         <v>33</v>
@@ -6203,7 +6186,7 @@
         <v>6</v>
       </c>
       <c r="D208" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="E208" t="s">
         <v>33</v>
@@ -6223,7 +6206,7 @@
         <v>7</v>
       </c>
       <c r="D209" t="s">
-        <v>272</v>
+        <v>296</v>
       </c>
       <c r="E209" t="s">
         <v>33</v>
@@ -6243,7 +6226,7 @@
         <v>7</v>
       </c>
       <c r="D210" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="E210" t="s">
         <v>33</v>
@@ -6263,7 +6246,7 @@
         <v>7</v>
       </c>
       <c r="D211" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="E211" t="s">
         <v>33</v>
@@ -6283,7 +6266,7 @@
         <v>7</v>
       </c>
       <c r="D212" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="E212" t="s">
         <v>33</v>
@@ -6303,7 +6286,7 @@
         <v>7</v>
       </c>
       <c r="D213" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -6323,7 +6306,7 @@
         <v>7</v>
       </c>
       <c r="D214" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="E214">
         <v>3</v>
@@ -6343,7 +6326,7 @@
         <v>7</v>
       </c>
       <c r="D215" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="E215" t="s">
         <v>33</v>
@@ -6363,7 +6346,7 @@
         <v>1</v>
       </c>
       <c r="D216" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="E216" t="s">
         <v>33</v>
@@ -6383,7 +6366,7 @@
         <v>2</v>
       </c>
       <c r="D217" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="E217" t="s">
         <v>33</v>
@@ -6403,7 +6386,7 @@
         <v>2</v>
       </c>
       <c r="D218" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="E218" t="s">
         <v>33</v>
@@ -6423,7 +6406,7 @@
         <v>2</v>
       </c>
       <c r="D219" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="E219" t="s">
         <v>33</v>
@@ -6443,7 +6426,7 @@
         <v>2</v>
       </c>
       <c r="D220" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="E220" t="s">
         <v>33</v>
@@ -6463,7 +6446,7 @@
         <v>2</v>
       </c>
       <c r="D221" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="E221" t="s">
         <v>33</v>
@@ -6483,7 +6466,7 @@
         <v>2</v>
       </c>
       <c r="D222" t="s">
-        <v>281</v>
+        <v>242</v>
       </c>
       <c r="E222" t="s">
         <v>33</v>
@@ -6503,7 +6486,7 @@
         <v>2</v>
       </c>
       <c r="D223" t="s">
-        <v>280</v>
+        <v>241</v>
       </c>
       <c r="E223" t="s">
         <v>33</v>
@@ -6523,7 +6506,7 @@
         <v>2</v>
       </c>
       <c r="D224" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="E224" t="s">
         <v>33</v>
@@ -6543,7 +6526,7 @@
         <v>2</v>
       </c>
       <c r="D225" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -6552,7 +6535,7 @@
         <v>7</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="J225">
         <v>5</v>
@@ -6566,7 +6549,7 @@
         <v>2</v>
       </c>
       <c r="D226" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="E226">
         <v>2</v>
@@ -6575,7 +6558,7 @@
         <v>7</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="J226">
         <v>5</v>
@@ -6589,7 +6572,7 @@
         <v>2</v>
       </c>
       <c r="D227" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="E227">
         <v>3</v>
@@ -6610,7 +6593,7 @@
         <v>2</v>
       </c>
       <c r="D228" t="s">
-        <v>284</v>
+        <v>245</v>
       </c>
       <c r="E228">
         <v>4</v>
@@ -6631,7 +6614,7 @@
         <v>2</v>
       </c>
       <c r="D229" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -6651,7 +6634,7 @@
         <v>2</v>
       </c>
       <c r="D230" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="E230">
         <v>2</v>
@@ -6671,7 +6654,7 @@
         <v>2</v>
       </c>
       <c r="D231" t="s">
-        <v>283</v>
+        <v>244</v>
       </c>
       <c r="E231">
         <v>3</v>
@@ -6691,7 +6674,7 @@
         <v>3</v>
       </c>
       <c r="D232" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -6711,7 +6694,7 @@
         <v>3</v>
       </c>
       <c r="D233" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -6731,7 +6714,7 @@
         <v>3</v>
       </c>
       <c r="D234" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="E234">
         <v>2</v>
@@ -6751,7 +6734,7 @@
         <v>3</v>
       </c>
       <c r="D235" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="E235">
         <v>3</v>
@@ -6771,7 +6754,7 @@
         <v>3</v>
       </c>
       <c r="D236" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="E236">
         <v>4</v>
@@ -6791,7 +6774,7 @@
         <v>3</v>
       </c>
       <c r="D237" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="E237">
         <v>5</v>
@@ -6811,7 +6794,7 @@
         <v>3</v>
       </c>
       <c r="D238" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="E238">
         <v>6</v>
@@ -6831,7 +6814,7 @@
         <v>3</v>
       </c>
       <c r="D239" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="E239">
         <v>7</v>
@@ -6851,7 +6834,7 @@
         <v>3</v>
       </c>
       <c r="D240" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="E240">
         <v>2</v>
@@ -6871,7 +6854,7 @@
         <v>3</v>
       </c>
       <c r="D241" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="E241">
         <v>3</v>
@@ -6891,7 +6874,7 @@
         <v>3</v>
       </c>
       <c r="D242" t="s">
-        <v>287</v>
+        <v>248</v>
       </c>
       <c r="E242">
         <v>4</v>
@@ -6911,7 +6894,7 @@
         <v>3</v>
       </c>
       <c r="D243" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -6931,7 +6914,7 @@
         <v>3</v>
       </c>
       <c r="D244" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="E244">
         <v>2</v>
@@ -6951,7 +6934,7 @@
         <v>3</v>
       </c>
       <c r="D245" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="E245">
         <v>3</v>
@@ -6971,7 +6954,7 @@
         <v>3</v>
       </c>
       <c r="D246" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="E246">
         <v>4</v>
@@ -6991,7 +6974,7 @@
         <v>3</v>
       </c>
       <c r="D247" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -7011,7 +6994,7 @@
         <v>3</v>
       </c>
       <c r="D248" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="E248">
         <v>2</v>
@@ -7031,7 +7014,7 @@
         <v>3</v>
       </c>
       <c r="D249" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="E249">
         <v>3</v>
@@ -7051,7 +7034,7 @@
         <v>3</v>
       </c>
       <c r="D250" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="E250">
         <v>4</v>
@@ -7071,7 +7054,7 @@
         <v>3</v>
       </c>
       <c r="D251" t="s">
-        <v>288</v>
+        <v>249</v>
       </c>
       <c r="E251">
         <v>5</v>
@@ -7091,7 +7074,7 @@
         <v>4</v>
       </c>
       <c r="D252" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="E252" t="s">
         <v>33</v>
@@ -7111,7 +7094,7 @@
         <v>4</v>
       </c>
       <c r="D253" t="s">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="E253" t="s">
         <v>33</v>
@@ -7131,7 +7114,7 @@
         <v>4</v>
       </c>
       <c r="D254" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="E254" t="s">
         <v>33</v>
@@ -7151,7 +7134,7 @@
         <v>4</v>
       </c>
       <c r="D255" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="E255" t="s">
         <v>33</v>
@@ -7171,7 +7154,7 @@
         <v>4</v>
       </c>
       <c r="D256" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="E256" t="s">
         <v>33</v>
@@ -7191,7 +7174,7 @@
         <v>4</v>
       </c>
       <c r="D257" t="s">
-        <v>289</v>
+        <v>250</v>
       </c>
       <c r="E257" t="s">
         <v>33</v>
@@ -7211,7 +7194,7 @@
         <v>4</v>
       </c>
       <c r="D258" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E258" t="s">
         <v>33</v>
@@ -7231,7 +7214,7 @@
         <v>4</v>
       </c>
       <c r="D259" t="s">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="E259" t="s">
         <v>33</v>
@@ -7251,7 +7234,7 @@
         <v>4</v>
       </c>
       <c r="D260" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="E260" t="s">
         <v>33</v>
@@ -7271,7 +7254,7 @@
         <v>5</v>
       </c>
       <c r="D261" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="E261" t="s">
         <v>33</v>
@@ -7291,7 +7274,7 @@
         <v>5</v>
       </c>
       <c r="D262" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="E262" t="s">
         <v>33</v>
@@ -7311,7 +7294,7 @@
         <v>5</v>
       </c>
       <c r="D263" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="E263" t="s">
         <v>33</v>
@@ -7331,7 +7314,7 @@
         <v>5</v>
       </c>
       <c r="D264" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="E264" t="s">
         <v>33</v>
@@ -7351,7 +7334,7 @@
         <v>6</v>
       </c>
       <c r="D265" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="E265" t="s">
         <v>33</v>
@@ -7371,7 +7354,7 @@
         <v>6</v>
       </c>
       <c r="D266" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="E266" t="s">
         <v>33</v>
@@ -7391,7 +7374,7 @@
         <v>6</v>
       </c>
       <c r="D267" t="s">
-        <v>302</v>
+        <v>261</v>
       </c>
       <c r="E267" t="s">
         <v>33</v>
@@ -7411,7 +7394,7 @@
         <v>6</v>
       </c>
       <c r="D268" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="E268" t="s">
         <v>33</v>
@@ -7431,7 +7414,7 @@
         <v>6</v>
       </c>
       <c r="D269" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="E269" t="s">
         <v>33</v>
@@ -7451,7 +7434,7 @@
         <v>6</v>
       </c>
       <c r="D270" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="E270" t="s">
         <v>33</v>
@@ -7471,7 +7454,7 @@
         <v>7</v>
       </c>
       <c r="D271" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="E271" t="s">
         <v>33</v>
@@ -7491,7 +7474,7 @@
         <v>7</v>
       </c>
       <c r="D272" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
       <c r="E272" t="s">
         <v>33</v>
@@ -7511,7 +7494,7 @@
         <v>7</v>
       </c>
       <c r="D273" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="E273" t="s">
         <v>33</v>
@@ -7531,7 +7514,7 @@
         <v>7</v>
       </c>
       <c r="D274" t="s">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="E274" t="s">
         <v>33</v>
@@ -7551,7 +7534,7 @@
         <v>7</v>
       </c>
       <c r="D275" t="s">
-        <v>310</v>
+        <v>286</v>
       </c>
       <c r="E275" t="s">
         <v>33</v>
@@ -7571,7 +7554,7 @@
         <v>7</v>
       </c>
       <c r="D276" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="E276" t="s">
         <v>33</v>
@@ -7591,7 +7574,7 @@
         <v>7</v>
       </c>
       <c r="D277" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="E277" t="s">
         <v>33</v>
@@ -7611,7 +7594,7 @@
         <v>7</v>
       </c>
       <c r="D278" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="E278" t="s">
         <v>33</v>
@@ -7631,7 +7614,7 @@
         <v>7</v>
       </c>
       <c r="D279" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="E279" t="s">
         <v>33</v>
@@ -7651,7 +7634,7 @@
         <v>7</v>
       </c>
       <c r="D280" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="E280" t="s">
         <v>33</v>
@@ -7671,7 +7654,7 @@
         <v>3</v>
       </c>
       <c r="D281" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="E281" t="s">
         <v>33</v>
@@ -7688,7 +7671,7 @@
         <v>3</v>
       </c>
       <c r="D282" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="E282" t="s">
         <v>33</v>
@@ -7705,7 +7688,7 @@
         <v>3</v>
       </c>
       <c r="D283" t="s">
-        <v>316</v>
+        <v>278</v>
       </c>
       <c r="E283" t="s">
         <v>33</v>
@@ -7722,7 +7705,7 @@
         <v>3</v>
       </c>
       <c r="D284" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="E284" t="s">
         <v>33</v>
@@ -7739,7 +7722,7 @@
         <v>3</v>
       </c>
       <c r="D285" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="E285" t="s">
         <v>33</v>
@@ -7756,7 +7739,7 @@
         <v>3</v>
       </c>
       <c r="D286" t="s">
-        <v>319</v>
+        <v>275</v>
       </c>
       <c r="E286" t="s">
         <v>33</v>
@@ -7773,7 +7756,7 @@
         <v>3</v>
       </c>
       <c r="D287" t="s">
-        <v>320</v>
+        <v>274</v>
       </c>
       <c r="E287" t="s">
         <v>33</v>
@@ -7790,7 +7773,7 @@
         <v>3</v>
       </c>
       <c r="D288" t="s">
-        <v>321</v>
+        <v>262</v>
       </c>
       <c r="E288" t="s">
         <v>33</v>
@@ -7799,7 +7782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B289" t="s">
         <v>24</v>
       </c>
@@ -7807,7 +7790,7 @@
         <v>4</v>
       </c>
       <c r="D289" t="s">
-        <v>322</v>
+        <v>263</v>
       </c>
       <c r="E289" t="s">
         <v>33</v>
@@ -7816,7 +7799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B290" t="s">
         <v>24</v>
       </c>
@@ -7824,7 +7807,7 @@
         <v>4</v>
       </c>
       <c r="D290" t="s">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="E290" t="s">
         <v>33</v>
@@ -7835,8 +7818,11 @@
       <c r="G290" s="2">
         <v>45809</v>
       </c>
-    </row>
-    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I290" s="2">
+        <v>46174</v>
+      </c>
+    </row>
+    <row r="291" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B291" t="s">
         <v>24</v>
       </c>
@@ -7844,7 +7830,7 @@
         <v>4</v>
       </c>
       <c r="D291" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
       <c r="E291" t="s">
         <v>33</v>
@@ -7855,8 +7841,11 @@
       <c r="G291" s="2">
         <v>45839</v>
       </c>
-    </row>
-    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I291" s="2">
+        <v>46204</v>
+      </c>
+    </row>
+    <row r="292" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B292" t="s">
         <v>24</v>
       </c>
@@ -7864,7 +7853,7 @@
         <v>4</v>
       </c>
       <c r="D292" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
       <c r="E292" t="s">
         <v>33</v>
@@ -7872,11 +7861,14 @@
       <c r="F292" t="s">
         <v>8</v>
       </c>
-      <c r="G292" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G292" s="2">
+        <v>45901</v>
+      </c>
+      <c r="I292" s="2">
+        <v>46266</v>
+      </c>
+    </row>
+    <row r="293" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B293" t="s">
         <v>24</v>
       </c>
@@ -7884,7 +7876,7 @@
         <v>4</v>
       </c>
       <c r="D293" t="s">
-        <v>324</v>
+        <v>265</v>
       </c>
       <c r="E293" t="s">
         <v>33</v>

--- a/Freezer_Database.xlsx
+++ b/Freezer_Database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univr-my.sharepoint.com/personal/filippo_lucchini_univr_it/Documents/Progetto Freezer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="8_{8E9AEE6C-E15B-6B49-8ACE-8ABC20802EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86921D59-5356-439D-9D6F-86F4F8BDF80C}"/>
+  <xr:revisionPtr revIDLastSave="204" documentId="8_{8E9AEE6C-E15B-6B49-8ACE-8ABC20802EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B878273A-719D-4301-8D11-77A885CCFCB1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CD75289-4961-452B-AFA6-E2C514327AF8}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Template" sheetId="1" r:id="rId1"/>
     <sheet name="Training Lists" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Template!$A$1:$J$293</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="320">
   <si>
     <t>Freezer Name</t>
   </si>
@@ -150,9 +153,6 @@
     <t>CGF346_Artuso</t>
   </si>
   <si>
-    <t xml:space="preserve">CGF326_Meyer </t>
-  </si>
-  <si>
     <t>Meyer_2019</t>
   </si>
   <si>
@@ -279,9 +279,6 @@
     <t>5824-5853/6003-6069</t>
   </si>
   <si>
-    <t>CGF346_Artuso WES</t>
-  </si>
-  <si>
     <t>Novembre/dicembre 2023</t>
   </si>
   <si>
@@ -360,9 +357,6 @@
     <t>X1851-X2109</t>
   </si>
   <si>
-    <t xml:space="preserve">CGF326_WES </t>
-  </si>
-  <si>
     <t>Ottobre-novembre 2023</t>
   </si>
   <si>
@@ -567,18 +561,12 @@
     <t xml:space="preserve"> /M2040-M2088</t>
   </si>
   <si>
-    <t>CGF346</t>
-  </si>
-  <si>
     <t>CGF363_Giglio</t>
   </si>
   <si>
     <t>Catt.812/catt.925</t>
   </si>
   <si>
-    <t xml:space="preserve">CGF334 Gaslini tellseq. </t>
-  </si>
-  <si>
     <t>Prove ILM Exome 2.0 plus</t>
   </si>
   <si>
@@ -735,15 +723,9 @@
     <t xml:space="preserve">Progetto insetti Bortolin </t>
   </si>
   <si>
-    <t>Librerie Hpevr varie</t>
-  </si>
-  <si>
     <t>Campione 5250 (pomodoro)/Gambino</t>
   </si>
   <si>
-    <t>Vermi/intatch</t>
-  </si>
-  <si>
     <t xml:space="preserve">Finotti ampliconi </t>
   </si>
   <si>
@@ -807,9 +789,6 @@
     <t>CGF285_Fagiolo moderno/ChlorellaUK</t>
   </si>
   <si>
-    <t xml:space="preserve">CGF301_Campioni reali </t>
-  </si>
-  <si>
     <t>Campioni ddRAD Francia</t>
   </si>
   <si>
@@ -831,15 +810,6 @@
     <t xml:space="preserve">CGF330_1+Milion genome </t>
   </si>
   <si>
-    <t>CGS326_Parrini WGS</t>
-  </si>
-  <si>
-    <t>CGS326_Parrini WES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGF330_1MILION </t>
-  </si>
-  <si>
     <t>CGF290_Tomasetti_Takara</t>
   </si>
   <si>
@@ -945,9 +915,6 @@
     <t>GEN05_Badolato</t>
   </si>
   <si>
-    <t>GEN_06</t>
-  </si>
-  <si>
     <t xml:space="preserve">GEN02_Negrar </t>
   </si>
   <si>
@@ -1002,12 +969,6 @@
     <t>GEN46_Burlo</t>
   </si>
   <si>
-    <t>GEN46_Burlo WES</t>
-  </si>
-  <si>
-    <t>GEN46 WES</t>
-  </si>
-  <si>
     <t>GEN46_Burlo WGS</t>
   </si>
   <si>
@@ -1018,6 +979,27 @@
   </si>
   <si>
     <t>GEN50_AB_Analitica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGF300_Campioni reali </t>
+  </si>
+  <si>
+    <t>GEN11_Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGF330_1MILLION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGF335 Gaslini tellseq. </t>
+  </si>
+  <si>
+    <t>Vermi/intcatch</t>
+  </si>
+  <si>
+    <t>Librerie HP e VR varie</t>
+  </si>
+  <si>
+    <t>GEN06</t>
   </si>
 </sst>
 </file>
@@ -1412,8 +1394,8 @@
   <dimension ref="A1:J293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I293" sqref="I293"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H137" sqref="H137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,7 +1451,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>33</v>
@@ -1492,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
         <v>33</v>
@@ -1527,10 +1509,10 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
         <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -1544,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -1556,7 +1538,7 @@
         <v>2018</v>
       </c>
       <c r="H5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -1576,7 +1558,7 @@
         <v>7</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>3</v>
@@ -1590,7 +1572,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
@@ -1610,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -1645,7 +1627,7 @@
         <v>44621</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9">
         <v>3</v>
@@ -1659,7 +1641,7 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
@@ -1671,7 +1653,7 @@
         <v>43497</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J10">
         <v>3</v>
@@ -1685,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
@@ -1694,10 +1676,10 @@
         <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J11">
         <v>3</v>
@@ -1711,7 +1693,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -1723,7 +1705,7 @@
         <v>2019</v>
       </c>
       <c r="H12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J12">
         <v>3</v>
@@ -1737,7 +1719,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E13" t="s">
         <v>33</v>
@@ -1746,10 +1728,10 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
         <v>50</v>
-      </c>
-      <c r="H13" t="s">
-        <v>51</v>
       </c>
       <c r="J13">
         <v>3</v>
@@ -1775,7 +1757,7 @@
         <v>44562</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14">
         <v>3</v>
@@ -1789,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
         <v>33</v>
@@ -1815,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
         <v>33</v>
@@ -1850,7 +1832,7 @@
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
         <v>33</v>
@@ -1867,16 +1849,16 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
       </c>
       <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" t="s">
         <v>56</v>
-      </c>
-      <c r="H18" t="s">
-        <v>57</v>
       </c>
       <c r="J18">
         <v>3</v>
@@ -1890,16 +1872,16 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" t="s">
         <v>58</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" t="s">
-        <v>59</v>
       </c>
       <c r="H19" t="s">
         <v>33</v>
@@ -1916,19 +1898,19 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
         <v>60</v>
       </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>61</v>
-      </c>
-      <c r="H20" t="s">
-        <v>62</v>
       </c>
       <c r="J20">
         <v>3</v>
@@ -1942,7 +1924,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
         <v>7</v>
@@ -1962,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
@@ -1974,7 +1956,7 @@
         <v>44287</v>
       </c>
       <c r="H22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -1988,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" t="s">
         <v>33</v>
@@ -2000,7 +1982,7 @@
         <v>2018</v>
       </c>
       <c r="H23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J23">
         <v>3</v>
@@ -2026,7 +2008,7 @@
         <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -2040,19 +2022,19 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" t="s">
         <v>67</v>
-      </c>
-      <c r="E25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" t="s">
-        <v>68</v>
       </c>
       <c r="J25">
         <v>3</v>
@@ -2066,7 +2048,7 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E26" t="s">
         <v>33</v>
@@ -2089,7 +2071,7 @@
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
         <v>33</v>
@@ -2101,7 +2083,7 @@
         <v>43739</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J27">
         <v>3</v>
@@ -2115,7 +2097,7 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
         <v>33</v>
@@ -2127,7 +2109,7 @@
         <v>44348</v>
       </c>
       <c r="H28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J28">
         <v>3</v>
@@ -2141,7 +2123,7 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
@@ -2153,7 +2135,7 @@
         <v>44348</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J29">
         <v>3</v>
@@ -2167,19 +2149,19 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
         <v>75</v>
       </c>
-      <c r="E30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>76</v>
-      </c>
-      <c r="H30" t="s">
-        <v>77</v>
       </c>
       <c r="J30">
         <v>3</v>
@@ -2193,7 +2175,7 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
@@ -2202,10 +2184,10 @@
         <v>7</v>
       </c>
       <c r="G31" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s">
         <v>78</v>
-      </c>
-      <c r="H31" t="s">
-        <v>79</v>
       </c>
       <c r="J31">
         <v>3</v>
@@ -2219,19 +2201,19 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" t="s">
         <v>80</v>
-      </c>
-      <c r="E32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" t="s">
-        <v>81</v>
-      </c>
-      <c r="H32" t="s">
-        <v>82</v>
       </c>
       <c r="J32">
         <v>3</v>
@@ -2245,7 +2227,7 @@
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
         <v>33</v>
@@ -2257,7 +2239,7 @@
         <v>2018</v>
       </c>
       <c r="H33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J33">
         <v>3</v>
@@ -2280,10 +2262,10 @@
         <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J34">
         <v>3</v>
@@ -2309,7 +2291,7 @@
         <v>44652</v>
       </c>
       <c r="H35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J35">
         <v>3</v>
@@ -2323,7 +2305,7 @@
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
         <v>33</v>
@@ -2335,7 +2317,7 @@
         <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J36">
         <v>3</v>
@@ -2358,7 +2340,7 @@
         <v>44378</v>
       </c>
       <c r="H37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J37">
         <v>3</v>
@@ -2375,7 +2357,7 @@
         <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F38" t="s">
         <v>7</v>
@@ -2384,7 +2366,7 @@
         <v>44713</v>
       </c>
       <c r="H38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J38">
         <v>3</v>
@@ -2398,7 +2380,7 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E39" t="s">
         <v>33</v>
@@ -2410,7 +2392,7 @@
         <v>43191</v>
       </c>
       <c r="H39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J39">
         <v>3</v>
@@ -2427,7 +2409,7 @@
         <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s">
         <v>7</v>
@@ -2436,7 +2418,7 @@
         <v>2019</v>
       </c>
       <c r="H40" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J40">
         <v>3</v>
@@ -2459,10 +2441,10 @@
         <v>7</v>
       </c>
       <c r="G41" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J41">
         <v>3</v>
@@ -2476,7 +2458,7 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42" t="s">
         <v>33</v>
@@ -2499,7 +2481,7 @@
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E43" t="s">
         <v>33</v>
@@ -2508,10 +2490,10 @@
         <v>7</v>
       </c>
       <c r="G43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -2525,7 +2507,7 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
         <v>33</v>
@@ -2534,10 +2516,10 @@
         <v>7</v>
       </c>
       <c r="G44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J44">
         <v>3</v>
@@ -2551,7 +2533,7 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E45" t="s">
         <v>33</v>
@@ -2574,7 +2556,7 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E46" t="s">
         <v>33</v>
@@ -2586,7 +2568,7 @@
         <v>33</v>
       </c>
       <c r="H46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -2609,10 +2591,10 @@
         <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H47" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J47">
         <v>3</v>
@@ -2626,7 +2608,7 @@
         <v>2</v>
       </c>
       <c r="D48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
         <v>33</v>
@@ -2652,7 +2634,7 @@
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E49" t="s">
         <v>33</v>
@@ -2675,7 +2657,7 @@
         <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E50" t="s">
         <v>33</v>
@@ -2687,7 +2669,7 @@
         <v>45078</v>
       </c>
       <c r="H50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J50">
         <v>3</v>
@@ -2701,7 +2683,7 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="E51" t="s">
         <v>33</v>
@@ -2710,10 +2692,10 @@
         <v>7</v>
       </c>
       <c r="G51" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H51" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J51">
         <v>3</v>
@@ -2727,7 +2709,7 @@
         <v>3</v>
       </c>
       <c r="D52" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E52" t="s">
         <v>33</v>
@@ -2739,7 +2721,7 @@
         <v>45047</v>
       </c>
       <c r="H52" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J52">
         <v>3</v>
@@ -2753,7 +2735,7 @@
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E53" t="s">
         <v>33</v>
@@ -2762,10 +2744,10 @@
         <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H53" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J53">
         <v>3</v>
@@ -2779,7 +2761,7 @@
         <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E54" t="s">
         <v>33</v>
@@ -2791,7 +2773,7 @@
         <v>44652</v>
       </c>
       <c r="H54" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J54">
         <v>3</v>
@@ -2805,7 +2787,7 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E55" t="s">
         <v>33</v>
@@ -2814,10 +2796,10 @@
         <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H55" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J55">
         <v>3</v>
@@ -2831,7 +2813,7 @@
         <v>3</v>
       </c>
       <c r="D56" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E56" t="s">
         <v>33</v>
@@ -2843,7 +2825,7 @@
         <v>44986</v>
       </c>
       <c r="H56" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J56">
         <v>3</v>
@@ -2857,7 +2839,7 @@
         <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E57" t="s">
         <v>33</v>
@@ -2869,7 +2851,7 @@
         <v>2018</v>
       </c>
       <c r="H57" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="J57">
         <v>3</v>
@@ -2892,10 +2874,10 @@
         <v>7</v>
       </c>
       <c r="G58" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H58" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J58">
         <v>3</v>
@@ -2909,7 +2891,7 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E59" t="s">
         <v>33</v>
@@ -2921,7 +2903,7 @@
         <v>44470</v>
       </c>
       <c r="H59" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J59">
         <v>3</v>
@@ -2935,7 +2917,7 @@
         <v>3</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="E60" t="s">
         <v>33</v>
@@ -2944,10 +2926,10 @@
         <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J60">
         <v>3</v>
@@ -2961,7 +2943,7 @@
         <v>3</v>
       </c>
       <c r="D61" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E61" t="s">
         <v>33</v>
@@ -2973,7 +2955,7 @@
         <v>44621</v>
       </c>
       <c r="H61" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J61">
         <v>3</v>
@@ -2987,7 +2969,7 @@
         <v>3</v>
       </c>
       <c r="D62" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E62" t="s">
         <v>33</v>
@@ -2999,7 +2981,7 @@
         <v>45108</v>
       </c>
       <c r="H62" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J62">
         <v>3</v>
@@ -3022,10 +3004,10 @@
         <v>7</v>
       </c>
       <c r="G63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J63">
         <v>3</v>
@@ -3051,7 +3033,7 @@
         <v>44896</v>
       </c>
       <c r="H64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J64">
         <v>3</v>
@@ -3065,7 +3047,7 @@
         <v>3</v>
       </c>
       <c r="D65" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E65" t="s">
         <v>33</v>
@@ -3088,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="D66" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E66" t="s">
         <v>33</v>
@@ -3097,10 +3079,10 @@
         <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H66" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J66">
         <v>3</v>
@@ -3123,10 +3105,10 @@
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="J67">
         <v>3</v>
@@ -3140,7 +3122,7 @@
         <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E68" t="s">
         <v>33</v>
@@ -3175,7 +3157,7 @@
         <v>44743</v>
       </c>
       <c r="H69" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J69">
         <v>3</v>
@@ -3189,7 +3171,7 @@
         <v>3</v>
       </c>
       <c r="D70" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E70" t="s">
         <v>33</v>
@@ -3198,10 +3180,10 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H70" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="J70">
         <v>3</v>
@@ -3215,7 +3197,7 @@
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E71" t="s">
         <v>33</v>
@@ -3224,10 +3206,10 @@
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H71" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J71">
         <v>3</v>
@@ -3241,7 +3223,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E72" t="s">
         <v>33</v>
@@ -3253,7 +3235,7 @@
         <v>45170</v>
       </c>
       <c r="H72" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J72">
         <v>3</v>
@@ -3276,10 +3258,10 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H73" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J73">
         <v>3</v>
@@ -3293,7 +3275,7 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E74" t="s">
         <v>33</v>
@@ -3325,10 +3307,10 @@
         <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H75" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J75">
         <v>3</v>
@@ -3342,7 +3324,7 @@
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E76" t="s">
         <v>33</v>
@@ -3351,10 +3333,10 @@
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H76" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J76">
         <v>3</v>
@@ -3377,10 +3359,10 @@
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H77" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J77">
         <v>3</v>
@@ -3394,7 +3376,7 @@
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E78" t="s">
         <v>33</v>
@@ -3426,10 +3408,10 @@
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H79" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="J79">
         <v>3</v>
@@ -3443,7 +3425,7 @@
         <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E80" t="s">
         <v>33</v>
@@ -3463,7 +3445,7 @@
         <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E81" t="s">
         <v>33</v>
@@ -3472,10 +3454,10 @@
         <v>7</v>
       </c>
       <c r="G81" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H81" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="J81">
         <v>3</v>
@@ -3489,7 +3471,7 @@
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E82" t="s">
         <v>33</v>
@@ -3521,10 +3503,10 @@
         <v>7</v>
       </c>
       <c r="G83" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H83" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="J83">
         <v>3</v>
@@ -3538,7 +3520,7 @@
         <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E84" t="s">
         <v>33</v>
@@ -3547,10 +3529,10 @@
         <v>7</v>
       </c>
       <c r="G84" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H84" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J84">
         <v>3</v>
@@ -3564,7 +3546,7 @@
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E85" t="s">
         <v>33</v>
@@ -3576,7 +3558,7 @@
         <v>44440</v>
       </c>
       <c r="H85" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="J85">
         <v>3</v>
@@ -3590,7 +3572,7 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E86" t="s">
         <v>33</v>
@@ -3602,7 +3584,7 @@
         <v>44531</v>
       </c>
       <c r="H86" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J86">
         <v>3</v>
@@ -3616,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E87" t="s">
         <v>33</v>
@@ -3639,7 +3621,7 @@
         <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E88" t="s">
         <v>33</v>
@@ -3671,10 +3653,10 @@
         <v>7</v>
       </c>
       <c r="G89" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H89" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J89">
         <v>3</v>
@@ -3688,7 +3670,7 @@
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E90" t="s">
         <v>33</v>
@@ -3700,7 +3682,7 @@
         <v>45292</v>
       </c>
       <c r="H90" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J90">
         <v>3</v>
@@ -3723,10 +3705,10 @@
         <v>7</v>
       </c>
       <c r="G91" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H91" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J91">
         <v>3</v>
@@ -3740,7 +3722,7 @@
         <v>4</v>
       </c>
       <c r="D92" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E92" t="s">
         <v>33</v>
@@ -3763,16 +3745,16 @@
         <v>4</v>
       </c>
       <c r="D93" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F93" t="s">
         <v>7</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H93" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J93">
         <v>3</v>
@@ -3798,7 +3780,7 @@
         <v>45413</v>
       </c>
       <c r="H94" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J94">
         <v>3</v>
@@ -3812,7 +3794,7 @@
         <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E95" t="s">
         <v>33</v>
@@ -3821,7 +3803,7 @@
         <v>7</v>
       </c>
       <c r="G95" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J95">
         <v>3</v>
@@ -3835,7 +3817,7 @@
         <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E96" t="s">
         <v>33</v>
@@ -3858,7 +3840,7 @@
         <v>5</v>
       </c>
       <c r="D97" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E97" t="s">
         <v>33</v>
@@ -3881,7 +3863,7 @@
         <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E98" t="s">
         <v>33</v>
@@ -3890,10 +3872,10 @@
         <v>7</v>
       </c>
       <c r="G98" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H98" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J98">
         <v>3</v>
@@ -3907,7 +3889,7 @@
         <v>5</v>
       </c>
       <c r="D99" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E99" t="s">
         <v>33</v>
@@ -3916,10 +3898,10 @@
         <v>7</v>
       </c>
       <c r="G99" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H99" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -3933,7 +3915,7 @@
         <v>5</v>
       </c>
       <c r="D100" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E100" t="s">
         <v>33</v>
@@ -3942,10 +3924,10 @@
         <v>8</v>
       </c>
       <c r="G100" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H100" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I100" s="2">
         <v>46054</v>
@@ -3962,7 +3944,7 @@
         <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E101" t="s">
         <v>33</v>
@@ -3974,7 +3956,7 @@
         <v>33</v>
       </c>
       <c r="H101" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J101">
         <v>3</v>
@@ -3988,7 +3970,7 @@
         <v>5</v>
       </c>
       <c r="D102" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E102" t="s">
         <v>33</v>
@@ -4000,7 +3982,7 @@
         <v>45778</v>
       </c>
       <c r="H102" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I102" s="2">
         <v>46143</v>
@@ -4017,7 +3999,7 @@
         <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E103" t="s">
         <v>33</v>
@@ -4026,10 +4008,10 @@
         <v>8</v>
       </c>
       <c r="G103" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H103" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I103" s="2">
         <v>46113</v>
@@ -4046,7 +4028,7 @@
         <v>5</v>
       </c>
       <c r="D104" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E104" t="s">
         <v>33</v>
@@ -4072,7 +4054,7 @@
         <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="E105" t="s">
         <v>33</v>
@@ -4081,10 +4063,10 @@
         <v>8</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H105" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="I105" s="2">
         <v>46023</v>
@@ -4101,7 +4083,7 @@
         <v>6</v>
       </c>
       <c r="D106" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -4121,7 +4103,7 @@
         <v>6</v>
       </c>
       <c r="D107" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E107" t="s">
         <v>33</v>
@@ -4130,7 +4112,7 @@
         <v>7</v>
       </c>
       <c r="G107" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J107">
         <v>3</v>
@@ -4144,7 +4126,7 @@
         <v>6</v>
       </c>
       <c r="D108" t="s">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="E108" t="s">
         <v>33</v>
@@ -4170,7 +4152,7 @@
         <v>6</v>
       </c>
       <c r="D109" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E109" t="s">
         <v>33</v>
@@ -4190,7 +4172,7 @@
         <v>6</v>
       </c>
       <c r="D110" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="E110" t="s">
         <v>33</v>
@@ -4210,7 +4192,7 @@
         <v>6</v>
       </c>
       <c r="D111" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="E111" t="s">
         <v>33</v>
@@ -4239,7 +4221,7 @@
         <v>9</v>
       </c>
       <c r="H112" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I112" s="2">
         <v>45992</v>
@@ -4256,7 +4238,7 @@
         <v>6</v>
       </c>
       <c r="D113" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="E113" t="s">
         <v>33</v>
@@ -4276,7 +4258,7 @@
         <v>6</v>
       </c>
       <c r="D114" t="s">
-        <v>179</v>
+        <v>316</v>
       </c>
       <c r="E114" t="s">
         <v>33</v>
@@ -4296,7 +4278,7 @@
         <v>6</v>
       </c>
       <c r="D115" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E115" t="s">
         <v>33</v>
@@ -4316,7 +4298,7 @@
         <v>6</v>
       </c>
       <c r="D116" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E116" t="s">
         <v>33</v>
@@ -4336,7 +4318,7 @@
         <v>6</v>
       </c>
       <c r="D117" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E117" t="s">
         <v>33</v>
@@ -4359,7 +4341,7 @@
         <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E118" t="s">
         <v>33</v>
@@ -4382,7 +4364,7 @@
         <v>6</v>
       </c>
       <c r="D119" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E119" t="s">
         <v>33</v>
@@ -4405,7 +4387,7 @@
         <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="E120" t="s">
         <v>33</v>
@@ -4425,7 +4407,7 @@
         <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E121" t="s">
         <v>33</v>
@@ -4434,7 +4416,7 @@
         <v>9</v>
       </c>
       <c r="H121" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -4448,7 +4430,7 @@
         <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E122" t="s">
         <v>33</v>
@@ -4460,7 +4442,7 @@
         <v>45292</v>
       </c>
       <c r="H122" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -4474,7 +4456,7 @@
         <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E123" t="s">
         <v>33</v>
@@ -4483,7 +4465,7 @@
         <v>8</v>
       </c>
       <c r="H123" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="J123">
         <v>3</v>
@@ -4497,7 +4479,7 @@
         <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="E124" t="s">
         <v>33</v>
@@ -4506,10 +4488,10 @@
         <v>8</v>
       </c>
       <c r="G124" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H124" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J124">
         <v>3</v>
@@ -4523,7 +4505,7 @@
         <v>7</v>
       </c>
       <c r="D125" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="E125" t="s">
         <v>33</v>
@@ -4532,7 +4514,7 @@
         <v>8</v>
       </c>
       <c r="H125" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="J125">
         <v>3</v>
@@ -4546,7 +4528,7 @@
         <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E126" t="s">
         <v>33</v>
@@ -4555,10 +4537,10 @@
         <v>8</v>
       </c>
       <c r="G126" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="H126" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="J126">
         <v>3</v>
@@ -4572,7 +4554,7 @@
         <v>7</v>
       </c>
       <c r="D127" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E127" t="s">
         <v>33</v>
@@ -4595,7 +4577,7 @@
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E128" t="s">
         <v>33</v>
@@ -4615,7 +4597,7 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E129" t="s">
         <v>33</v>
@@ -4624,7 +4606,7 @@
         <v>8</v>
       </c>
       <c r="H129" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="J129">
         <v>2</v>
@@ -4638,7 +4620,7 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E130" t="s">
         <v>33</v>
@@ -4658,7 +4640,7 @@
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E131" t="s">
         <v>33</v>
@@ -4678,7 +4660,7 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E132" t="s">
         <v>33</v>
@@ -4698,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E133" t="s">
         <v>33</v>
@@ -4718,7 +4700,7 @@
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E134" t="s">
         <v>33</v>
@@ -4738,7 +4720,7 @@
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E135" t="s">
         <v>33</v>
@@ -4758,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E136" t="s">
         <v>33</v>
@@ -4778,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E137" t="s">
         <v>33</v>
@@ -4798,7 +4780,7 @@
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E138" t="s">
         <v>33</v>
@@ -4818,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E139" t="s">
         <v>33</v>
@@ -4838,7 +4820,7 @@
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E140" t="s">
         <v>33</v>
@@ -4858,7 +4840,7 @@
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="E141" t="s">
         <v>33</v>
@@ -4878,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E142" t="s">
         <v>33</v>
@@ -4898,7 +4880,7 @@
         <v>2</v>
       </c>
       <c r="D143" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E143" t="s">
         <v>33</v>
@@ -4918,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="D144" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E144" t="s">
         <v>33</v>
@@ -4938,7 +4920,7 @@
         <v>2</v>
       </c>
       <c r="D145" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="E145" t="s">
         <v>33</v>
@@ -4958,7 +4940,7 @@
         <v>2</v>
       </c>
       <c r="D146" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="E146" t="s">
         <v>33</v>
@@ -4978,7 +4960,7 @@
         <v>2</v>
       </c>
       <c r="D147" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="E147" t="s">
         <v>33</v>
@@ -4998,7 +4980,7 @@
         <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E148" t="s">
         <v>33</v>
@@ -5018,7 +5000,7 @@
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E149" t="s">
         <v>33</v>
@@ -5038,7 +5020,7 @@
         <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="E150" t="s">
         <v>33</v>
@@ -5058,7 +5040,7 @@
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="E151" t="s">
         <v>33</v>
@@ -5078,7 +5060,7 @@
         <v>2</v>
       </c>
       <c r="D152" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="E152" t="s">
         <v>33</v>
@@ -5098,7 +5080,7 @@
         <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E153" t="s">
         <v>33</v>
@@ -5118,7 +5100,7 @@
         <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="E154" t="s">
         <v>33</v>
@@ -5138,7 +5120,7 @@
         <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="E155" t="s">
         <v>33</v>
@@ -5158,7 +5140,7 @@
         <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E156" t="s">
         <v>33</v>
@@ -5178,7 +5160,7 @@
         <v>3</v>
       </c>
       <c r="D157" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -5198,7 +5180,7 @@
         <v>3</v>
       </c>
       <c r="D158" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="E158">
         <v>2</v>
@@ -5218,7 +5200,7 @@
         <v>3</v>
       </c>
       <c r="D159" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E159" t="s">
         <v>33</v>
@@ -5244,7 +5226,7 @@
         <v>7</v>
       </c>
       <c r="H160" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J160">
         <v>2</v>
@@ -5258,7 +5240,7 @@
         <v>3</v>
       </c>
       <c r="D161" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E161" t="s">
         <v>33</v>
@@ -5281,7 +5263,7 @@
         <v>3</v>
       </c>
       <c r="D162" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E162" t="s">
         <v>33</v>
@@ -5290,7 +5272,7 @@
         <v>7</v>
       </c>
       <c r="H162" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="J162">
         <v>2</v>
@@ -5304,7 +5286,7 @@
         <v>3</v>
       </c>
       <c r="D163" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E163" t="s">
         <v>33</v>
@@ -5324,7 +5306,7 @@
         <v>3</v>
       </c>
       <c r="D164" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="E164" t="s">
         <v>33</v>
@@ -5344,7 +5326,7 @@
         <v>3</v>
       </c>
       <c r="D165" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E165" t="s">
         <v>33</v>
@@ -5364,7 +5346,7 @@
         <v>3</v>
       </c>
       <c r="D166" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E166" t="s">
         <v>33</v>
@@ -5384,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="D167" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="E167" t="s">
         <v>33</v>
@@ -5404,7 +5386,7 @@
         <v>3</v>
       </c>
       <c r="D168" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E168" t="s">
         <v>33</v>
@@ -5424,7 +5406,7 @@
         <v>3</v>
       </c>
       <c r="D169" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E169" t="s">
         <v>33</v>
@@ -5444,7 +5426,7 @@
         <v>3</v>
       </c>
       <c r="D170" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E170" t="s">
         <v>33</v>
@@ -5464,7 +5446,7 @@
         <v>3</v>
       </c>
       <c r="D171" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E171" t="s">
         <v>33</v>
@@ -5480,8 +5462,11 @@
       <c r="B172" t="s">
         <v>25</v>
       </c>
+      <c r="C172">
+        <v>3</v>
+      </c>
       <c r="D172" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E172" t="s">
         <v>33</v>
@@ -5494,8 +5479,11 @@
       <c r="B173" t="s">
         <v>25</v>
       </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
       <c r="D173" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E173" t="s">
         <v>33</v>
@@ -5515,7 +5503,7 @@
         <v>4</v>
       </c>
       <c r="D174" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E174" t="s">
         <v>33</v>
@@ -5532,7 +5520,7 @@
         <v>5</v>
       </c>
       <c r="D175" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E175" t="s">
         <v>33</v>
@@ -5549,7 +5537,7 @@
         <v>5</v>
       </c>
       <c r="D176" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E176" t="s">
         <v>33</v>
@@ -5569,7 +5557,7 @@
         <v>5</v>
       </c>
       <c r="D177" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="E177" t="s">
         <v>33</v>
@@ -5589,7 +5577,7 @@
         <v>5</v>
       </c>
       <c r="D178" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="E178" t="s">
         <v>33</v>
@@ -5609,7 +5597,7 @@
         <v>5</v>
       </c>
       <c r="D179" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -5629,7 +5617,7 @@
         <v>5</v>
       </c>
       <c r="D180" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E180">
         <v>2</v>
@@ -5649,7 +5637,7 @@
         <v>5</v>
       </c>
       <c r="D181" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E181">
         <v>3</v>
@@ -5669,7 +5657,7 @@
         <v>5</v>
       </c>
       <c r="D182" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E182">
         <v>4</v>
@@ -5689,7 +5677,7 @@
         <v>5</v>
       </c>
       <c r="D183" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E183">
         <v>5</v>
@@ -5709,7 +5697,7 @@
         <v>5</v>
       </c>
       <c r="D184" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E184">
         <v>6</v>
@@ -5729,7 +5717,7 @@
         <v>5</v>
       </c>
       <c r="D185" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E185" t="s">
         <v>33</v>
@@ -5749,7 +5737,7 @@
         <v>5</v>
       </c>
       <c r="D186" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E186" t="s">
         <v>33</v>
@@ -5769,7 +5757,7 @@
         <v>5</v>
       </c>
       <c r="D187" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E187" t="s">
         <v>33</v>
@@ -5789,7 +5777,7 @@
         <v>5</v>
       </c>
       <c r="D188" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E188" t="s">
         <v>33</v>
@@ -5809,7 +5797,7 @@
         <v>5</v>
       </c>
       <c r="D189" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="E189" t="s">
         <v>33</v>
@@ -5829,7 +5817,7 @@
         <v>5</v>
       </c>
       <c r="D190" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E190" t="s">
         <v>33</v>
@@ -5846,7 +5834,7 @@
         <v>5</v>
       </c>
       <c r="D191" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E191" t="s">
         <v>33</v>
@@ -5866,7 +5854,7 @@
         <v>5</v>
       </c>
       <c r="D192" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E192" t="s">
         <v>33</v>
@@ -5886,7 +5874,7 @@
         <v>5</v>
       </c>
       <c r="D193" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E193" t="s">
         <v>33</v>
@@ -5906,7 +5894,7 @@
         <v>5</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="E194" t="s">
         <v>33</v>
@@ -5926,7 +5914,7 @@
         <v>5</v>
       </c>
       <c r="D195" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E195" t="s">
         <v>33</v>
@@ -5946,7 +5934,7 @@
         <v>5</v>
       </c>
       <c r="D196" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E196" t="s">
         <v>33</v>
@@ -5966,7 +5954,7 @@
         <v>6</v>
       </c>
       <c r="D197" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E197" t="s">
         <v>33</v>
@@ -5986,7 +5974,7 @@
         <v>6</v>
       </c>
       <c r="D198" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E198" t="s">
         <v>33</v>
@@ -6006,7 +5994,7 @@
         <v>6</v>
       </c>
       <c r="D199" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E199" t="s">
         <v>33</v>
@@ -6029,7 +6017,7 @@
         <v>6</v>
       </c>
       <c r="D200" t="s">
-        <v>232</v>
+        <v>318</v>
       </c>
       <c r="E200" t="s">
         <v>33</v>
@@ -6049,7 +6037,7 @@
         <v>6</v>
       </c>
       <c r="D201" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E201" t="s">
         <v>33</v>
@@ -6069,7 +6057,7 @@
         <v>6</v>
       </c>
       <c r="D202" t="s">
-        <v>234</v>
+        <v>317</v>
       </c>
       <c r="E202" t="s">
         <v>33</v>
@@ -6086,7 +6074,7 @@
         <v>6</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E203" t="s">
         <v>33</v>
@@ -6106,7 +6094,7 @@
         <v>6</v>
       </c>
       <c r="D204" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E204" t="s">
         <v>33</v>
@@ -6126,7 +6114,7 @@
         <v>6</v>
       </c>
       <c r="D205" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E205" t="s">
         <v>33</v>
@@ -6146,7 +6134,7 @@
         <v>6</v>
       </c>
       <c r="D206" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E206" t="s">
         <v>33</v>
@@ -6166,7 +6154,7 @@
         <v>6</v>
       </c>
       <c r="D207" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E207" t="s">
         <v>33</v>
@@ -6186,7 +6174,7 @@
         <v>6</v>
       </c>
       <c r="D208" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="E208" t="s">
         <v>33</v>
@@ -6206,7 +6194,7 @@
         <v>7</v>
       </c>
       <c r="D209" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E209" t="s">
         <v>33</v>
@@ -6226,7 +6214,7 @@
         <v>7</v>
       </c>
       <c r="D210" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E210" t="s">
         <v>33</v>
@@ -6246,7 +6234,7 @@
         <v>7</v>
       </c>
       <c r="D211" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E211" t="s">
         <v>33</v>
@@ -6266,7 +6254,7 @@
         <v>7</v>
       </c>
       <c r="D212" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E212" t="s">
         <v>33</v>
@@ -6286,7 +6274,7 @@
         <v>7</v>
       </c>
       <c r="D213" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -6306,7 +6294,7 @@
         <v>7</v>
       </c>
       <c r="D214" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E214">
         <v>3</v>
@@ -6326,7 +6314,7 @@
         <v>7</v>
       </c>
       <c r="D215" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E215" t="s">
         <v>33</v>
@@ -6346,7 +6334,7 @@
         <v>1</v>
       </c>
       <c r="D216" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="E216" t="s">
         <v>33</v>
@@ -6366,7 +6354,7 @@
         <v>2</v>
       </c>
       <c r="D217" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E217" t="s">
         <v>33</v>
@@ -6386,7 +6374,7 @@
         <v>2</v>
       </c>
       <c r="D218" t="s">
-        <v>238</v>
+        <v>314</v>
       </c>
       <c r="E218" t="s">
         <v>33</v>
@@ -6406,7 +6394,7 @@
         <v>2</v>
       </c>
       <c r="D219" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E219" t="s">
         <v>33</v>
@@ -6426,7 +6414,7 @@
         <v>2</v>
       </c>
       <c r="D220" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E220" t="s">
         <v>33</v>
@@ -6446,7 +6434,7 @@
         <v>2</v>
       </c>
       <c r="D221" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E221" t="s">
         <v>33</v>
@@ -6466,7 +6454,7 @@
         <v>2</v>
       </c>
       <c r="D222" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E222" t="s">
         <v>33</v>
@@ -6486,7 +6474,7 @@
         <v>2</v>
       </c>
       <c r="D223" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E223" t="s">
         <v>33</v>
@@ -6506,7 +6494,7 @@
         <v>2</v>
       </c>
       <c r="D224" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E224" t="s">
         <v>33</v>
@@ -6526,7 +6514,7 @@
         <v>2</v>
       </c>
       <c r="D225" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -6535,7 +6523,7 @@
         <v>7</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="J225">
         <v>5</v>
@@ -6549,7 +6537,7 @@
         <v>2</v>
       </c>
       <c r="D226" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E226">
         <v>2</v>
@@ -6558,7 +6546,7 @@
         <v>7</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="J226">
         <v>5</v>
@@ -6572,7 +6560,7 @@
         <v>2</v>
       </c>
       <c r="D227" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E227">
         <v>3</v>
@@ -6593,7 +6581,7 @@
         <v>2</v>
       </c>
       <c r="D228" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E228">
         <v>4</v>
@@ -6614,7 +6602,7 @@
         <v>2</v>
       </c>
       <c r="D229" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -6634,7 +6622,7 @@
         <v>2</v>
       </c>
       <c r="D230" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E230">
         <v>2</v>
@@ -6654,7 +6642,7 @@
         <v>2</v>
       </c>
       <c r="D231" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E231">
         <v>3</v>
@@ -6674,7 +6662,7 @@
         <v>3</v>
       </c>
       <c r="D232" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -6694,7 +6682,7 @@
         <v>3</v>
       </c>
       <c r="D233" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -6714,7 +6702,7 @@
         <v>3</v>
       </c>
       <c r="D234" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E234">
         <v>2</v>
@@ -6734,7 +6722,7 @@
         <v>3</v>
       </c>
       <c r="D235" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E235">
         <v>3</v>
@@ -6754,7 +6742,7 @@
         <v>3</v>
       </c>
       <c r="D236" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E236">
         <v>4</v>
@@ -6774,7 +6762,7 @@
         <v>3</v>
       </c>
       <c r="D237" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E237">
         <v>5</v>
@@ -6794,7 +6782,7 @@
         <v>3</v>
       </c>
       <c r="D238" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E238">
         <v>6</v>
@@ -6814,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="D239" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E239">
         <v>7</v>
@@ -6834,7 +6822,7 @@
         <v>3</v>
       </c>
       <c r="D240" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E240">
         <v>2</v>
@@ -6854,7 +6842,7 @@
         <v>3</v>
       </c>
       <c r="D241" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E241">
         <v>3</v>
@@ -6874,7 +6862,7 @@
         <v>3</v>
       </c>
       <c r="D242" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E242">
         <v>4</v>
@@ -6894,7 +6882,7 @@
         <v>3</v>
       </c>
       <c r="D243" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -6914,7 +6902,7 @@
         <v>3</v>
       </c>
       <c r="D244" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E244">
         <v>2</v>
@@ -6934,7 +6922,7 @@
         <v>3</v>
       </c>
       <c r="D245" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E245">
         <v>3</v>
@@ -6954,7 +6942,7 @@
         <v>3</v>
       </c>
       <c r="D246" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E246">
         <v>4</v>
@@ -6974,7 +6962,7 @@
         <v>3</v>
       </c>
       <c r="D247" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -6994,7 +6982,7 @@
         <v>3</v>
       </c>
       <c r="D248" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E248">
         <v>2</v>
@@ -7014,7 +7002,7 @@
         <v>3</v>
       </c>
       <c r="D249" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E249">
         <v>3</v>
@@ -7034,7 +7022,7 @@
         <v>3</v>
       </c>
       <c r="D250" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E250">
         <v>4</v>
@@ -7054,7 +7042,7 @@
         <v>3</v>
       </c>
       <c r="D251" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E251">
         <v>5</v>
@@ -7074,7 +7062,7 @@
         <v>4</v>
       </c>
       <c r="D252" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E252" t="s">
         <v>33</v>
@@ -7094,7 +7082,7 @@
         <v>4</v>
       </c>
       <c r="D253" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E253" t="s">
         <v>33</v>
@@ -7114,7 +7102,7 @@
         <v>4</v>
       </c>
       <c r="D254" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E254" t="s">
         <v>33</v>
@@ -7134,7 +7122,7 @@
         <v>4</v>
       </c>
       <c r="D255" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E255" t="s">
         <v>33</v>
@@ -7154,7 +7142,7 @@
         <v>4</v>
       </c>
       <c r="D256" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="E256" t="s">
         <v>33</v>
@@ -7174,7 +7162,7 @@
         <v>4</v>
       </c>
       <c r="D257" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E257" t="s">
         <v>33</v>
@@ -7194,7 +7182,7 @@
         <v>4</v>
       </c>
       <c r="D258" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E258" t="s">
         <v>33</v>
@@ -7214,7 +7202,7 @@
         <v>4</v>
       </c>
       <c r="D259" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E259" t="s">
         <v>33</v>
@@ -7234,7 +7222,7 @@
         <v>4</v>
       </c>
       <c r="D260" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E260" t="s">
         <v>33</v>
@@ -7254,7 +7242,7 @@
         <v>5</v>
       </c>
       <c r="D261" t="s">
-        <v>256</v>
+        <v>313</v>
       </c>
       <c r="E261" t="s">
         <v>33</v>
@@ -7274,7 +7262,7 @@
         <v>5</v>
       </c>
       <c r="D262" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E262" t="s">
         <v>33</v>
@@ -7294,7 +7282,7 @@
         <v>5</v>
       </c>
       <c r="D263" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E263" t="s">
         <v>33</v>
@@ -7314,7 +7302,7 @@
         <v>5</v>
       </c>
       <c r="D264" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E264" t="s">
         <v>33</v>
@@ -7334,7 +7322,7 @@
         <v>6</v>
       </c>
       <c r="D265" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E265" t="s">
         <v>33</v>
@@ -7354,7 +7342,7 @@
         <v>6</v>
       </c>
       <c r="D266" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E266" t="s">
         <v>33</v>
@@ -7374,7 +7362,7 @@
         <v>6</v>
       </c>
       <c r="D267" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E267" t="s">
         <v>33</v>
@@ -7394,7 +7382,7 @@
         <v>6</v>
       </c>
       <c r="D268" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E268" t="s">
         <v>33</v>
@@ -7414,7 +7402,7 @@
         <v>6</v>
       </c>
       <c r="D269" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E269" t="s">
         <v>33</v>
@@ -7434,7 +7422,7 @@
         <v>6</v>
       </c>
       <c r="D270" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="E270" t="s">
         <v>33</v>
@@ -7454,7 +7442,7 @@
         <v>7</v>
       </c>
       <c r="D271" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E271" t="s">
         <v>33</v>
@@ -7474,7 +7462,7 @@
         <v>7</v>
       </c>
       <c r="D272" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E272" t="s">
         <v>33</v>
@@ -7494,7 +7482,7 @@
         <v>7</v>
       </c>
       <c r="D273" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="E273" t="s">
         <v>33</v>
@@ -7514,7 +7502,7 @@
         <v>7</v>
       </c>
       <c r="D274" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E274" t="s">
         <v>33</v>
@@ -7534,7 +7522,7 @@
         <v>7</v>
       </c>
       <c r="D275" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E275" t="s">
         <v>33</v>
@@ -7554,7 +7542,7 @@
         <v>7</v>
       </c>
       <c r="D276" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E276" t="s">
         <v>33</v>
@@ -7574,7 +7562,7 @@
         <v>7</v>
       </c>
       <c r="D277" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="E277" t="s">
         <v>33</v>
@@ -7594,7 +7582,7 @@
         <v>7</v>
       </c>
       <c r="D278" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E278" t="s">
         <v>33</v>
@@ -7614,7 +7602,7 @@
         <v>7</v>
       </c>
       <c r="D279" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E279" t="s">
         <v>33</v>
@@ -7634,7 +7622,7 @@
         <v>7</v>
       </c>
       <c r="D280" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="E280" t="s">
         <v>33</v>
@@ -7654,7 +7642,7 @@
         <v>3</v>
       </c>
       <c r="D281" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E281" t="s">
         <v>33</v>
@@ -7671,7 +7659,7 @@
         <v>3</v>
       </c>
       <c r="D282" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="E282" t="s">
         <v>33</v>
@@ -7688,7 +7676,7 @@
         <v>3</v>
       </c>
       <c r="D283" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E283" t="s">
         <v>33</v>
@@ -7705,7 +7693,7 @@
         <v>3</v>
       </c>
       <c r="D284" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="E284" t="s">
         <v>33</v>
@@ -7722,7 +7710,7 @@
         <v>3</v>
       </c>
       <c r="D285" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E285" t="s">
         <v>33</v>
@@ -7739,7 +7727,7 @@
         <v>3</v>
       </c>
       <c r="D286" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E286" t="s">
         <v>33</v>
@@ -7756,7 +7744,7 @@
         <v>3</v>
       </c>
       <c r="D287" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E287" t="s">
         <v>33</v>
@@ -7773,7 +7761,7 @@
         <v>3</v>
       </c>
       <c r="D288" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E288" t="s">
         <v>33</v>
@@ -7790,7 +7778,7 @@
         <v>4</v>
       </c>
       <c r="D289" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E289" t="s">
         <v>33</v>
@@ -7807,7 +7795,7 @@
         <v>4</v>
       </c>
       <c r="D290" t="s">
-        <v>264</v>
+        <v>136</v>
       </c>
       <c r="E290" t="s">
         <v>33</v>
@@ -7830,7 +7818,7 @@
         <v>4</v>
       </c>
       <c r="D291" t="s">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="E291" t="s">
         <v>33</v>
@@ -7853,7 +7841,7 @@
         <v>4</v>
       </c>
       <c r="D292" t="s">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="E292" t="s">
         <v>33</v>
@@ -7876,7 +7864,7 @@
         <v>4</v>
       </c>
       <c r="D293" t="s">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="E293" t="s">
         <v>33</v>
@@ -7886,6 +7874,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J293" xr:uid="{D819BC2A-29C8-474F-8807-81D8B4A3F6D6}"/>
   <phoneticPr fontId="2" alignment="center"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
